--- a/bank.xlsx
+++ b/bank.xlsx
@@ -171,12 +171,6 @@
     <t>Loan Deposit Ratio</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
     <t>Total Asset</t>
   </si>
   <si>
@@ -184,6 +178,12 @@
   </si>
   <si>
     <t>Regulatory Adjustment T-2</t>
+  </si>
+  <si>
+    <t>Cash Dividend</t>
+  </si>
+  <si>
+    <t>Stock Dividend</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>-3.9699999999999998</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>0.15</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1">
         <v>0.05</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1">
         <v>22701.25</v>

--- a/bank.xlsx
+++ b/bank.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Particulars</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Maintained CRAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required CRAR IN 2017 (10%+1.25%) </t>
   </si>
   <si>
     <t>Advance</t>
@@ -502,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1117,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
         <v>-3.9699999999999998</v>
@@ -1646,7 +1643,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -2094,88 +2091,88 @@
         <v>46</v>
       </c>
       <c r="B21" s="1">
-        <v>0.1125</v>
+        <v>17044.14</v>
       </c>
       <c r="C21" s="1">
-        <v>0.1125</v>
+        <v>26258.23</v>
       </c>
       <c r="D21" s="1">
-        <v>0.1125</v>
+        <v>23763.45</v>
       </c>
       <c r="E21" s="1">
-        <v>0.1125</v>
+        <v>11083.45</v>
       </c>
       <c r="F21" s="1">
-        <v>0.1125</v>
+        <v>18724.650000000001</v>
       </c>
       <c r="G21" s="1">
-        <v>0.1125</v>
+        <v>11709.96</v>
       </c>
       <c r="H21" s="1">
-        <v>0.1125</v>
+        <v>20032.84</v>
       </c>
       <c r="I21" s="1">
-        <v>0.1125</v>
+        <v>20725.740000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>0.1125</v>
+        <v>19707.28</v>
       </c>
       <c r="K21" s="1">
-        <v>0.1125</v>
+        <v>23431.67</v>
       </c>
       <c r="L21" s="1">
-        <v>0.1125</v>
+        <v>17377.61</v>
       </c>
       <c r="M21" s="1">
-        <v>0.1125</v>
+        <v>22339.69</v>
       </c>
       <c r="N21" s="1">
-        <v>0.1125</v>
+        <v>12609.68</v>
       </c>
       <c r="O21" s="1">
-        <v>0.1125</v>
+        <v>15411.62</v>
       </c>
       <c r="P21" s="1">
-        <v>0.1125</v>
+        <v>15386.76</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.1125</v>
+        <v>12822.82</v>
       </c>
       <c r="R21" s="1">
-        <v>0.1125</v>
+        <v>19168.45</v>
       </c>
       <c r="S21" s="1">
-        <v>0.1125</v>
+        <v>19651.939999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.1125</v>
+        <v>61141.89</v>
       </c>
       <c r="U21" s="1">
-        <v>0.1125</v>
+        <v>14125.88</v>
       </c>
       <c r="V21" s="1">
-        <v>0.1125</v>
+        <v>24170.17</v>
       </c>
       <c r="W21" s="1">
-        <v>0.1125</v>
+        <v>20301.12</v>
       </c>
       <c r="X21" s="1">
-        <v>0.1125</v>
+        <v>17584.14</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.1125</v>
+        <v>12907.01</v>
       </c>
       <c r="Z21" s="1">
-        <v>0.1125</v>
+        <v>21391.53</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.1125</v>
+        <v>20061.919999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>0.1125</v>
+        <v>11372.38</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.1125</v>
+        <v>8331.11</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -2183,88 +2180,88 @@
         <v>47</v>
       </c>
       <c r="B22" s="1">
-        <v>17044.14</v>
+        <v>18214.3</v>
       </c>
       <c r="C22" s="1">
-        <v>26258.23</v>
+        <v>27800.5</v>
       </c>
       <c r="D22" s="1">
-        <v>23763.45</v>
+        <v>23556.21</v>
       </c>
       <c r="E22" s="1">
-        <v>11083.45</v>
+        <v>13159.36</v>
       </c>
       <c r="F22" s="1">
-        <v>18724.650000000001</v>
+        <v>20027.419999999998</v>
       </c>
       <c r="G22" s="1">
-        <v>11709.96</v>
+        <v>14155.1</v>
       </c>
       <c r="H22" s="1">
-        <v>20032.84</v>
+        <v>20728.39</v>
       </c>
       <c r="I22" s="1">
-        <v>20725.740000000002</v>
+        <v>23379.64</v>
       </c>
       <c r="J22" s="1">
-        <v>19707.28</v>
+        <v>18290.29</v>
       </c>
       <c r="K22" s="1">
-        <v>23431.67</v>
+        <v>26982.81</v>
       </c>
       <c r="L22" s="1">
-        <v>17377.61</v>
+        <v>19029.330000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>22339.69</v>
+        <v>24822.36</v>
       </c>
       <c r="N22" s="1">
-        <v>12609.68</v>
+        <v>12403.38</v>
       </c>
       <c r="O22" s="1">
-        <v>15411.62</v>
+        <v>15578.36</v>
       </c>
       <c r="P22" s="1">
-        <v>15386.76</v>
+        <v>16972.97</v>
       </c>
       <c r="Q22" s="1">
-        <v>12822.82</v>
+        <v>13473.06</v>
       </c>
       <c r="R22" s="1">
-        <v>19168.45</v>
+        <v>16695.849999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>19651.939999999999</v>
+        <v>19970.39</v>
       </c>
       <c r="T22" s="1">
-        <v>61141.89</v>
+        <v>68104.45</v>
       </c>
       <c r="U22" s="1">
-        <v>14125.88</v>
+        <v>16013.26</v>
       </c>
       <c r="V22" s="1">
-        <v>24170.17</v>
+        <v>27141</v>
       </c>
       <c r="W22" s="1">
-        <v>20301.12</v>
+        <v>24727.85</v>
       </c>
       <c r="X22" s="1">
-        <v>17584.14</v>
+        <v>18147.88</v>
       </c>
       <c r="Y22" s="1">
-        <v>12907.01</v>
+        <v>13270.36</v>
       </c>
       <c r="Z22" s="1">
-        <v>21391.53</v>
+        <v>24071.99</v>
       </c>
       <c r="AA22" s="1">
-        <v>20061.919999999998</v>
+        <v>19900.02</v>
       </c>
       <c r="AB22" s="1">
-        <v>11372.38</v>
+        <v>13144.25</v>
       </c>
       <c r="AC22" s="1">
-        <v>8331.11</v>
+        <v>13473.33</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -2272,177 +2269,171 @@
         <v>48</v>
       </c>
       <c r="B23" s="1">
-        <v>18214.3</v>
+        <v>0.93575597195610039</v>
       </c>
       <c r="C23" s="1">
-        <v>27800.5</v>
+        <v>0.94452365964640927</v>
       </c>
       <c r="D23" s="1">
-        <v>23556.21</v>
+        <v>1.0087976801021896</v>
       </c>
       <c r="E23" s="1">
-        <v>13159.36</v>
+        <v>0.84224840721737226</v>
       </c>
       <c r="F23" s="1">
-        <v>20027.419999999998</v>
+        <v>0.93495068261413616</v>
       </c>
       <c r="G23" s="1">
-        <v>14155.1</v>
+        <v>0.82726084591419335</v>
       </c>
       <c r="H23" s="1">
-        <v>20728.39</v>
+        <v>0.96644457191320698</v>
       </c>
       <c r="I23" s="1">
-        <v>23379.64</v>
+        <v>0.88648670381579875</v>
       </c>
       <c r="J23" s="1">
-        <v>18290.29</v>
+        <v>1.0774722544038393</v>
       </c>
       <c r="K23" s="1">
-        <v>26982.81</v>
+        <v>0.868392506191905</v>
       </c>
       <c r="L23" s="1">
-        <v>19029.330000000002</v>
+        <v>0.91320135811402703</v>
       </c>
       <c r="M23" s="1">
-        <v>24822.36</v>
+        <v>0.89998251576401267</v>
       </c>
       <c r="N23" s="1">
-        <v>12403.38</v>
+        <v>1.0166325630594242</v>
       </c>
       <c r="O23" s="1">
-        <v>15578.36</v>
+        <v>0.98929669105091933</v>
       </c>
       <c r="P23" s="1">
-        <v>16972.97</v>
+        <v>0.90654493585978169</v>
       </c>
       <c r="Q23" s="1">
-        <v>13473.06</v>
+        <v>0.95173776410110256</v>
       </c>
       <c r="R23" s="1">
-        <v>16695.849999999999</v>
+        <v>1.1153</v>
       </c>
       <c r="S23" s="1">
-        <v>19970.39</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="T23" s="1">
-        <v>68104.45</v>
+        <v>0.89780000000000004</v>
       </c>
       <c r="U23" s="1">
-        <v>16013.26</v>
+        <v>0.88209999999999988</v>
       </c>
       <c r="V23" s="1">
-        <v>27141</v>
+        <v>0.89054087911278135</v>
       </c>
       <c r="W23" s="1">
-        <v>24727.85</v>
+        <v>0.82098201016263039</v>
       </c>
       <c r="X23" s="1">
-        <v>18147.88</v>
+        <v>0.96893631652843193</v>
       </c>
       <c r="Y23" s="1">
-        <v>13270.36</v>
+        <v>0.97261943157533026</v>
       </c>
       <c r="Z23" s="1">
-        <v>24071.99</v>
+        <v>0.8886481757428446</v>
       </c>
       <c r="AA23" s="1">
-        <v>19900.02</v>
+        <v>1.0081356702154067</v>
       </c>
       <c r="AB23" s="1">
-        <v>13144.25</v>
+        <v>0.86519809041976525</v>
       </c>
       <c r="AC23" s="1">
-        <v>13473.33</v>
+        <v>0.61834082591311879</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1">
-        <v>0.93575597195610039</v>
+        <v>0.15</v>
       </c>
       <c r="C24" s="1">
-        <v>0.94452365964640927</v>
+        <v>0.1</v>
       </c>
       <c r="D24" s="1">
-        <v>1.0087976801021896</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.84224840721737226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1">
-        <v>0.93495068261413616</v>
+        <v>0.15</v>
       </c>
       <c r="G24" s="1">
-        <v>0.82726084591419335</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>0.96644457191320698</v>
+        <v>0.15</v>
       </c>
       <c r="I24" s="1">
-        <v>0.88648670381579875</v>
+        <v>0.3</v>
       </c>
       <c r="J24" s="1">
-        <v>1.0774722544038393</v>
+        <v>0.24</v>
       </c>
       <c r="K24" s="1">
-        <v>0.868392506191905</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>0.91320135811402703</v>
+        <v>0.15</v>
       </c>
       <c r="M24" s="1">
-        <v>0.89998251576401267</v>
+        <v>0.15</v>
       </c>
       <c r="N24" s="1">
-        <v>1.0166325630594242</v>
+        <v>0.1</v>
       </c>
       <c r="O24" s="1">
-        <v>0.98929669105091933</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P24" s="1">
-        <v>0.90654493585978169</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.95173776410110256</v>
+        <v>0.05</v>
       </c>
       <c r="R24" s="1">
-        <v>1.1153</v>
+        <v>0.2</v>
       </c>
       <c r="S24" s="1">
-        <v>0.98409999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="T24" s="1">
-        <v>0.89780000000000004</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0.88209999999999988</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="U24" s="1"/>
       <c r="V24" s="1">
-        <v>0.89054087911278135</v>
+        <v>0.05</v>
       </c>
       <c r="W24" s="1">
-        <v>0.82098201016263039</v>
+        <v>0.05</v>
       </c>
       <c r="X24" s="1">
-        <v>0.96893631652843193</v>
+        <v>0.1</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.97261943157533026</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>0.8886481757428446</v>
-      </c>
+        <v>0.16</v>
+      </c>
+      <c r="Z24" s="1"/>
       <c r="AA24" s="1">
-        <v>1.0081356702154067</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB24" s="1">
-        <v>0.86519809041976525</v>
+        <v>0.1</v>
       </c>
       <c r="AC24" s="1">
-        <v>0.61834082591311879</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -2450,243 +2441,160 @@
         <v>53</v>
       </c>
       <c r="B25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>0.15</v>
       </c>
-      <c r="C25" s="1">
+      <c r="F25" s="1">
         <v>0.1</v>
       </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1">
         <v>0.15</v>
       </c>
-      <c r="G25" s="1">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
       <c r="L25" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.15</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="M25" s="1"/>
       <c r="N25" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O25" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="Q25" s="1">
         <v>0.05</v>
       </c>
       <c r="R25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="U25" s="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1">
+        <v>0.12</v>
+      </c>
       <c r="V25" s="1">
         <v>0.05</v>
       </c>
       <c r="W25" s="1">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="X25" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="Z25" s="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AA25" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>10</v>
       </c>
       <c r="AB25" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>0.2</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="AC25" s="1"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1">
-        <v>0.05</v>
+        <v>22701.25</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>36520.85</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>31716.880000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.15</v>
+        <v>16448.04</v>
       </c>
       <c r="F26" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>24131.919999999998</v>
+      </c>
+      <c r="G26" s="1">
+        <v>16919.5</v>
+      </c>
       <c r="H26" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+        <v>29094.46</v>
+      </c>
+      <c r="I26" s="1">
+        <v>31190.68</v>
+      </c>
+      <c r="J26" s="1">
+        <v>27806.81</v>
+      </c>
       <c r="K26" s="1">
-        <v>0.15</v>
+        <v>33928.81</v>
       </c>
       <c r="L26" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="M26" s="1"/>
+        <v>22781.53</v>
+      </c>
+      <c r="M26" s="1">
+        <v>29113.19</v>
+      </c>
       <c r="N26" s="1">
-        <v>0.05</v>
+        <v>17095.3</v>
       </c>
       <c r="O26" s="1">
-        <v>0.08</v>
+        <v>20503.54</v>
       </c>
       <c r="P26" s="1">
-        <v>0.125</v>
+        <v>23082.85</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.05</v>
+        <v>17569.91</v>
       </c>
       <c r="R26" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+        <v>25629.98</v>
+      </c>
+      <c r="S26" s="1">
+        <v>27290</v>
+      </c>
+      <c r="T26" s="1">
+        <v>79792.66</v>
+      </c>
       <c r="U26" s="1">
-        <v>0.12</v>
+        <v>20025.11</v>
       </c>
       <c r="V26" s="1">
-        <v>0.05</v>
+        <v>30562.06</v>
       </c>
       <c r="W26" s="1">
-        <v>0.08</v>
+        <v>32036.19</v>
       </c>
       <c r="X26" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Y26" s="1"/>
+        <v>26832.400000000001</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>17406.400000000001</v>
+      </c>
       <c r="Z26" s="1">
-        <v>0.2</v>
+        <v>30655.48</v>
       </c>
       <c r="AA26" s="1">
-        <v>10</v>
+        <v>28239.49</v>
       </c>
       <c r="AB26" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1">
-        <v>22701.25</v>
-      </c>
-      <c r="C27" s="1">
-        <v>36520.85</v>
-      </c>
-      <c r="D27" s="1">
-        <v>31716.880000000001</v>
-      </c>
-      <c r="E27" s="1">
-        <v>16448.04</v>
-      </c>
-      <c r="F27" s="1">
-        <v>24131.919999999998</v>
-      </c>
-      <c r="G27" s="1">
-        <v>16919.5</v>
-      </c>
-      <c r="H27" s="1">
-        <v>29094.46</v>
-      </c>
-      <c r="I27" s="1">
-        <v>31190.68</v>
-      </c>
-      <c r="J27" s="1">
-        <v>27806.81</v>
-      </c>
-      <c r="K27" s="1">
-        <v>33928.81</v>
-      </c>
-      <c r="L27" s="1">
-        <v>22781.53</v>
-      </c>
-      <c r="M27" s="1">
-        <v>29113.19</v>
-      </c>
-      <c r="N27" s="1">
-        <v>17095.3</v>
-      </c>
-      <c r="O27" s="1">
-        <v>20503.54</v>
-      </c>
-      <c r="P27" s="1">
-        <v>23082.85</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>17569.91</v>
-      </c>
-      <c r="R27" s="1">
-        <v>25629.98</v>
-      </c>
-      <c r="S27" s="1">
-        <v>27290</v>
-      </c>
-      <c r="T27" s="1">
-        <v>79792.66</v>
-      </c>
-      <c r="U27" s="1">
-        <v>20025.11</v>
-      </c>
-      <c r="V27" s="1">
-        <v>30562.06</v>
-      </c>
-      <c r="W27" s="1">
-        <v>32036.19</v>
-      </c>
-      <c r="X27" s="1">
-        <v>26832.400000000001</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>17406.400000000001</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>30655.48</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>28239.49</v>
-      </c>
-      <c r="AB27" s="1">
         <v>16826.14</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AC26" s="1">
         <v>16232.21</v>
       </c>
     </row>

--- a/bank.xlsx
+++ b/bank.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C17BF93-9370-4FD1-A0D2-DCA1A6348561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +112,6 @@
     <t>Paid Up Capital</t>
   </si>
   <si>
-    <t>Statutory</t>
-  </si>
-  <si>
     <t>General Reserve</t>
   </si>
   <si>
@@ -181,12 +179,15 @@
   </si>
   <si>
     <t>Stock Dividend</t>
+  </si>
+  <si>
+    <t>Statutory Reserve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,11 +499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +691,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1">
         <v>510.39</v>
@@ -779,7 +780,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -844,7 +845,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -879,7 +880,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -924,7 +925,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -981,7 +982,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1">
         <v>179.1</v>
@@ -1070,7 +1071,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>2.61</v>
@@ -1117,7 +1118,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1">
         <v>-3.9699999999999998</v>
@@ -1206,7 +1207,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
         <v>1418.1599999999999</v>
@@ -1295,7 +1296,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1">
         <v>7.6100000000000001E-2</v>
@@ -1384,7 +1385,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1">
         <v>241.42</v>
@@ -1473,7 +1474,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
         <v>488</v>
@@ -1556,7 +1557,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1">
         <v>2.57</v>
@@ -1643,7 +1644,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1732,7 +1733,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1">
         <v>731.99</v>
@@ -1821,7 +1822,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
         <v>3.9300000000000002E-2</v>
@@ -1910,7 +1911,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1">
         <v>2150.1499999999996</v>
@@ -1999,7 +2000,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1">
         <v>0.1154</v>
@@ -2088,7 +2089,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>17044.14</v>
@@ -2177,7 +2178,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1">
         <v>18214.3</v>
@@ -2266,7 +2267,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1">
         <v>0.93575597195610039</v>
@@ -2355,7 +2356,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>0.15</v>
@@ -2438,7 +2439,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1">
         <v>0.05</v>
@@ -2511,7 +2512,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
         <v>22701.25</v>

--- a/bank.xlsx
+++ b/bank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GoogleDrive\python\Bank_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E76AC48-AC71-4025-95F3-F4FECDA0265B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E8202-A936-41D8-8202-39F729F966C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="124">
   <si>
     <t>UCB</t>
   </si>
@@ -390,9 +390,6 @@
     <t>UBL</t>
   </si>
   <si>
-    <t xml:space="preserve">Required CRAR IN 2017 (10%+1.25%) </t>
-  </si>
-  <si>
     <t>Total Regulatory Capital</t>
   </si>
   <si>
@@ -406,6 +403,12 @@
   </si>
   <si>
     <t>Dividend Equilization Reserve</t>
+  </si>
+  <si>
+    <t>Regulatory Adjustment (Tier-1)</t>
+  </si>
+  <si>
+    <t>Regulatory Adjustment (Tier-2)</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -611,8 +614,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -642,8 +643,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,23 +953,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD29"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" sqref="A1:XFD22"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" style="57" customWidth="1"/>
+    <col min="1" max="1" width="36" style="53" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="51" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="51" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="49" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
@@ -992,565 +991,565 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="55" t="s">
+      <c r="V1" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="55" t="s">
+      <c r="W1" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="55" t="s">
+      <c r="X1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="55" t="s">
+      <c r="Y1" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="54" t="s">
+      <c r="Z1" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="55" t="s">
+      <c r="AA1" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="54" t="s">
+      <c r="AB1" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="56" t="s">
+      <c r="AC1" s="52" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="33">
         <v>663.66552799999999</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="33">
         <v>1054.1300000000001</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="33">
         <v>673.89</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="34">
         <v>443.18</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="34">
         <v>506.33</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="34">
         <v>614.1</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="34">
         <v>881.26</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="34">
         <v>200</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="34">
         <v>875.8</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="34">
         <v>916.95</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="34">
         <v>738.3</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="34">
         <v>1412.25</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="34">
         <v>734.69</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="34">
         <v>739.16</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="34">
         <v>687.9</v>
       </c>
-      <c r="Q2" s="36">
+      <c r="Q2" s="34">
         <v>754</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="34">
         <v>702.86</v>
       </c>
-      <c r="S2" s="36">
+      <c r="S2" s="34">
         <v>994.31</v>
       </c>
-      <c r="T2" s="36">
+      <c r="T2" s="34">
         <v>1609.99</v>
       </c>
-      <c r="U2" s="36">
+      <c r="U2" s="34">
         <v>563.79999999999995</v>
       </c>
-      <c r="V2" s="36">
+      <c r="V2" s="34">
         <v>678.87</v>
       </c>
-      <c r="W2" s="36">
+      <c r="W2" s="34">
         <v>880.74</v>
       </c>
-      <c r="X2" s="36">
+      <c r="X2" s="34">
         <v>710.44</v>
       </c>
-      <c r="Y2" s="36">
+      <c r="Y2" s="34">
         <v>883.22</v>
       </c>
-      <c r="Z2" s="36">
+      <c r="Z2" s="34">
         <v>1975.38</v>
       </c>
-      <c r="AA2" s="36">
+      <c r="AA2" s="34">
         <v>1029.3499999999999</v>
       </c>
-      <c r="AB2" s="36">
+      <c r="AB2" s="34">
         <v>682.08</v>
       </c>
-      <c r="AC2" s="36">
+      <c r="AC2" s="34">
         <v>400.08</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="33">
+        <v>443.49295089999998</v>
+      </c>
+      <c r="C3" s="33">
+        <v>937.51</v>
+      </c>
+      <c r="D3" s="33">
+        <v>649.55999999999995</v>
+      </c>
+      <c r="E3" s="34">
+        <v>318.77999999999997</v>
+      </c>
+      <c r="F3" s="34">
+        <v>402.74</v>
+      </c>
+      <c r="G3" s="34">
+        <v>399.83</v>
+      </c>
+      <c r="H3" s="34">
+        <v>653.36</v>
+      </c>
+      <c r="I3" s="34">
+        <v>813.44</v>
+      </c>
+      <c r="J3" s="34">
+        <v>609.16999999999996</v>
+      </c>
+      <c r="K3" s="34">
+        <v>917</v>
+      </c>
+      <c r="L3" s="34">
+        <v>431.88</v>
+      </c>
+      <c r="M3" s="34">
+        <v>784.65</v>
+      </c>
+      <c r="N3" s="34">
+        <v>440.36</v>
+      </c>
+      <c r="O3" s="34">
+        <v>544.92999999999995</v>
+      </c>
+      <c r="P3" s="34">
+        <v>585.03</v>
+      </c>
+      <c r="Q3" s="34">
+        <v>417.52</v>
+      </c>
+      <c r="R3" s="34">
+        <v>699.17</v>
+      </c>
+      <c r="S3" s="34">
+        <v>649.01</v>
+      </c>
+      <c r="T3" s="34">
+        <v>1609.99</v>
+      </c>
+      <c r="U3" s="34">
+        <v>464.9</v>
+      </c>
+      <c r="V3" s="34">
+        <v>241.21</v>
+      </c>
+      <c r="W3" s="34">
+        <v>930.02</v>
+      </c>
+      <c r="X3" s="34">
+        <v>347.04</v>
+      </c>
+      <c r="Y3" s="34">
+        <v>592.75</v>
+      </c>
+      <c r="Z3" s="34">
+        <v>1139.24</v>
+      </c>
+      <c r="AA3" s="34">
+        <v>920.4</v>
+      </c>
+      <c r="AB3" s="34">
+        <v>334.2</v>
+      </c>
+      <c r="AC3" s="34">
+        <v>433.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0</v>
+      </c>
+      <c r="C4" s="33">
+        <v>2.66</v>
+      </c>
+      <c r="D4" s="33">
+        <v>129.88999999999999</v>
+      </c>
+      <c r="E4" s="34">
+        <v>61.68</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34">
+        <v>0.82</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K4" s="34">
+        <v>24.77</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34">
+        <v>12.21</v>
+      </c>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="34">
+        <v>13</v>
+      </c>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33">
+        <v>400.41</v>
+      </c>
+      <c r="U4" s="34">
+        <v>15.5</v>
+      </c>
+      <c r="V4" s="33">
+        <v>40.29</v>
+      </c>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33">
+        <v>1.02</v>
+      </c>
+      <c r="Z4" s="33">
+        <v>5.25</v>
+      </c>
+      <c r="AA4" s="33">
+        <v>2.8</v>
+      </c>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33">
+        <v>83.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="33">
+        <v>0.99</v>
+      </c>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33">
+        <v>145.5</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J6" s="34">
+        <v>66.09</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="U6" s="34"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33">
+        <v>518.17999999999995</v>
+      </c>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33">
+        <v>224.12</v>
+      </c>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="35">
-        <v>443.49295089999998</v>
-      </c>
-      <c r="C3" s="35">
-        <v>937.51</v>
-      </c>
-      <c r="D3" s="35">
-        <v>649.55999999999995</v>
-      </c>
-      <c r="E3" s="36">
-        <v>318.77999999999997</v>
-      </c>
-      <c r="F3" s="36">
-        <v>402.74</v>
-      </c>
-      <c r="G3" s="36">
-        <v>399.83</v>
-      </c>
-      <c r="H3" s="36">
-        <v>653.36</v>
-      </c>
-      <c r="I3" s="36">
-        <v>813.44</v>
-      </c>
-      <c r="J3" s="36">
-        <v>609.16999999999996</v>
-      </c>
-      <c r="K3" s="36">
-        <v>917</v>
-      </c>
-      <c r="L3" s="36">
-        <v>431.88</v>
-      </c>
-      <c r="M3" s="36">
-        <v>784.65</v>
-      </c>
-      <c r="N3" s="36">
-        <v>440.36</v>
-      </c>
-      <c r="O3" s="36">
-        <v>544.92999999999995</v>
-      </c>
-      <c r="P3" s="36">
-        <v>585.03</v>
-      </c>
-      <c r="Q3" s="36">
-        <v>417.52</v>
-      </c>
-      <c r="R3" s="36">
-        <v>699.17</v>
-      </c>
-      <c r="S3" s="36">
-        <v>649.01</v>
-      </c>
-      <c r="T3" s="36">
-        <v>1609.99</v>
-      </c>
-      <c r="U3" s="36">
-        <v>464.9</v>
-      </c>
-      <c r="V3" s="36">
-        <v>241.21</v>
-      </c>
-      <c r="W3" s="36">
-        <v>930.02</v>
-      </c>
-      <c r="X3" s="36">
-        <v>347.04</v>
-      </c>
-      <c r="Y3" s="36">
-        <v>592.75</v>
-      </c>
-      <c r="Z3" s="36">
-        <v>1139.24</v>
-      </c>
-      <c r="AA3" s="36">
-        <v>920.4</v>
-      </c>
-      <c r="AB3" s="36">
-        <v>334.2</v>
-      </c>
-      <c r="AC3" s="36">
-        <v>433.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="35">
+      <c r="B7" s="33">
         <v>0</v>
       </c>
-      <c r="C4" s="35">
-        <v>2.66</v>
-      </c>
-      <c r="D4" s="35">
-        <v>129.88999999999999</v>
-      </c>
-      <c r="E4" s="36">
-        <v>61.68</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36">
-        <v>0.82</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="K4" s="36">
-        <v>24.77</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36">
-        <v>12.21</v>
-      </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="36">
-        <v>13</v>
-      </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35">
-        <v>400.41</v>
-      </c>
-      <c r="U4" s="36">
-        <v>15.5</v>
-      </c>
-      <c r="V4" s="35">
-        <v>40.29</v>
-      </c>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35">
-        <v>1.02</v>
-      </c>
-      <c r="Z4" s="35">
-        <v>5.25</v>
-      </c>
-      <c r="AA4" s="35">
-        <v>2.8</v>
-      </c>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35">
-        <v>83.56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="35">
-        <v>0.99</v>
-      </c>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35">
-        <v>145.5</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="J6" s="36">
-        <v>66.09</v>
-      </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="U6" s="36"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35">
-        <v>518.17999999999995</v>
-      </c>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35">
-        <v>224.12</v>
-      </c>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="35">
+      <c r="C7" s="33">
         <v>0</v>
       </c>
-      <c r="C7" s="35">
+      <c r="D7" s="33">
         <v>0</v>
       </c>
-      <c r="D7" s="35">
-        <v>0</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34">
         <v>3.07</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36">
+      <c r="H7" s="34"/>
+      <c r="I7" s="34">
         <v>156.68</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="34">
         <v>17.690000000000001</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35">
+      <c r="K7" s="34"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33">
         <v>6.28</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35">
+      <c r="N7" s="33"/>
+      <c r="O7" s="33">
         <v>4.57</v>
       </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="36">
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34">
         <v>35.6</v>
       </c>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35">
+      <c r="S7" s="33"/>
+      <c r="T7" s="33">
         <v>3.2</v>
       </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35">
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33">
         <v>35.520000000000003</v>
       </c>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35">
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33">
         <v>6.44</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="33">
         <v>135.84212590000001</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>170.21</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <v>783.62</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="34">
         <v>84.12</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="34">
         <v>238.59</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>119.73</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="34">
         <v>126.8</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="34">
         <v>443.77</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="34">
         <v>297.26</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="34">
         <v>319.7</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="34">
         <v>148.19999999999999</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="34">
         <v>243.87</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="34">
         <v>110.61</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="34">
         <v>153.87</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="34">
         <v>94.23</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="34">
         <v>83.27</v>
       </c>
-      <c r="R8" s="36">
+      <c r="R8" s="34">
         <v>301.25</v>
       </c>
-      <c r="S8" s="36">
+      <c r="S8" s="34">
         <v>219.96</v>
       </c>
-      <c r="T8" s="36">
+      <c r="T8" s="34">
         <v>171.72</v>
       </c>
-      <c r="U8" s="36">
+      <c r="U8" s="34">
         <v>226.9</v>
       </c>
-      <c r="V8" s="36">
+      <c r="V8" s="34">
         <v>79.39</v>
       </c>
-      <c r="W8" s="36">
+      <c r="W8" s="34">
         <v>409.42</v>
       </c>
-      <c r="X8" s="36">
+      <c r="X8" s="34">
         <v>552.44000000000005</v>
       </c>
-      <c r="Y8" s="36">
+      <c r="Y8" s="34">
         <v>141.65</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="Z8" s="33">
         <v>382.35</v>
       </c>
-      <c r="AA8" s="36">
+      <c r="AA8" s="34">
         <v>196.11</v>
       </c>
-      <c r="AB8" s="36">
+      <c r="AB8" s="34">
         <v>157.47</v>
       </c>
-      <c r="AC8" s="35">
+      <c r="AC8" s="33">
         <v>165.2</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="55" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="3">
@@ -1595,1698 +1594,1477 @@
       <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.89</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>257.36</v>
-      </c>
-      <c r="E10" s="5">
-        <v>6.82</v>
-      </c>
-      <c r="F10" s="5">
-        <v>114.08</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="H10" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="I10" s="5">
-        <v>181.24</v>
-      </c>
-      <c r="J10" s="5">
-        <v>188.66</v>
-      </c>
-      <c r="K10" s="5">
-        <v>10.86</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5">
-        <v>9.52</v>
-      </c>
-      <c r="P10" s="5">
-        <v>23.93</v>
-      </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5">
-        <v>126.04</v>
-      </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5">
-        <v>11.02</v>
-      </c>
-      <c r="V10" s="5">
-        <v>19.72</v>
-      </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="2">
-        <v>248.82</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>7.26</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>287.07</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>16.62</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>204.82</v>
-      </c>
-      <c r="AC10" s="2"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="27">
+      <c r="A10" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="25">
         <v>-1.89</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C10" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D10" s="25">
         <v>-257.36</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E10" s="25">
         <v>-6.82</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F10" s="25">
         <v>-114.08</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G10" s="25">
         <v>-0.82</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H10" s="25">
         <v>-6.3</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I10" s="25">
         <v>-181.24</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J10" s="25">
         <v>-188.66</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K10" s="25">
         <v>-10.86</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L10" s="25">
         <v>0</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M10" s="25">
         <v>0</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N10" s="25">
         <v>0</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O10" s="25">
         <v>-9.52</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P10" s="25">
         <v>-23.93</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q10" s="25">
         <v>0</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R10" s="25">
         <v>-126.04</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S10" s="25">
         <v>0</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T10" s="25">
         <v>0</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U10" s="25">
         <v>-11.02</v>
       </c>
-      <c r="V11" s="27">
+      <c r="V10" s="25">
         <v>-19.72</v>
       </c>
-      <c r="W11" s="27">
+      <c r="W10" s="25">
         <v>0</v>
       </c>
-      <c r="X11" s="27">
+      <c r="X10" s="25">
         <v>-248.82</v>
       </c>
-      <c r="Y11" s="27">
+      <c r="Y10" s="25">
         <v>-7.26</v>
       </c>
-      <c r="Z11" s="27">
+      <c r="Z10" s="25">
         <v>-287.07</v>
       </c>
-      <c r="AA11" s="27">
+      <c r="AA10" s="25">
         <v>-16.62</v>
       </c>
-      <c r="AB11" s="27">
+      <c r="AB10" s="25">
         <v>-204.82</v>
       </c>
-      <c r="AC11" s="27">
+      <c r="AC10" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+    <row r="11" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B11" s="35">
         <v>1243.2706047999998</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C11" s="35">
         <v>2310.0100000000002</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D11" s="35">
         <v>1980.5999999999995</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E11" s="35">
         <v>900.93999999999994</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F11" s="35">
         <v>1033.58</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G11" s="35">
         <v>1135.9100000000001</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H11" s="35">
         <v>1655.9399999999998</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I11" s="35">
         <v>1433.76</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J11" s="35">
         <v>1678.4899999999998</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K11" s="35">
         <v>2167.56</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L11" s="35">
         <v>1318.3799999999999</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M11" s="35">
         <v>2447.0500000000002</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N11" s="35">
         <v>1285.6600000000001</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O11" s="35">
         <v>1433.0099999999998</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P11" s="35">
         <v>1355.4399999999998</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q11" s="35">
         <v>1254.79</v>
       </c>
-      <c r="R12" s="37">
+      <c r="R11" s="35">
         <v>1625.84</v>
       </c>
-      <c r="S12" s="37">
+      <c r="S11" s="35">
         <v>1863.28</v>
       </c>
-      <c r="T12" s="37">
+      <c r="T11" s="35">
         <v>3795.5309999999995</v>
       </c>
-      <c r="U12" s="37">
+      <c r="U11" s="35">
         <v>1260.08</v>
       </c>
-      <c r="V12" s="37">
+      <c r="V11" s="35">
         <v>1051.03</v>
       </c>
-      <c r="W12" s="37">
+      <c r="W11" s="35">
         <v>2220.1799999999998</v>
       </c>
-      <c r="X12" s="37">
+      <c r="X11" s="35">
         <v>2062.3799999999997</v>
       </c>
-      <c r="Y12" s="37">
+      <c r="Y11" s="35">
         <v>1611.38</v>
       </c>
-      <c r="Z12" s="37">
+      <c r="Z11" s="35">
         <v>3215.16</v>
       </c>
-      <c r="AA12" s="37">
+      <c r="AA11" s="35">
         <v>2356.1600000000003</v>
       </c>
-      <c r="AB12" s="37">
+      <c r="AB11" s="35">
         <v>968.93000000000006</v>
       </c>
-      <c r="AC12" s="37">
+      <c r="AC11" s="35">
         <v>1088.3600000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+    <row r="12" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B12" s="20">
         <v>8.72E-2</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C12" s="20">
         <v>7.8200000000000006E-2</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D12" s="20">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E12" s="20">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F12" s="21">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G12" s="21">
         <v>7.8E-2</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H12" s="21">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I12" s="21">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J12" s="21">
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K12" s="21">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L12" s="20">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M12" s="20">
         <v>9.5600000000000004E-2</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N12" s="20">
         <v>0.1031</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O12" s="20">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P12" s="21">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q12" s="21">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R12" s="21">
         <v>0.10730000000000001</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S12" s="21">
         <v>0.1192</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T12" s="21">
         <v>8.77E-2</v>
       </c>
-      <c r="U13" s="21">
+      <c r="U12" s="21">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V12" s="20">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="W13" s="21">
+      <c r="W12" s="21">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="X13" s="21">
+      <c r="X12" s="21">
         <v>0.1036</v>
       </c>
-      <c r="Y13" s="22">
+      <c r="Y12" s="22">
         <v>0.10929999999999999</v>
       </c>
-      <c r="Z13" s="22">
+      <c r="Z12" s="22">
         <v>0.1137</v>
       </c>
-      <c r="AA13" s="22">
+      <c r="AA12" s="22">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="AB13" s="23">
+      <c r="AB12" s="23">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AC13" s="22">
+      <c r="AC12" s="22">
         <v>0.1178</v>
       </c>
     </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>220</v>
+      </c>
+      <c r="C13" s="3">
+        <v>332.36</v>
+      </c>
+      <c r="D13" s="3">
+        <v>506</v>
+      </c>
+      <c r="E13" s="5">
+        <v>155.96</v>
+      </c>
+      <c r="F13" s="5">
+        <v>243.56</v>
+      </c>
+      <c r="G13" s="5">
+        <v>188.87</v>
+      </c>
+      <c r="H13" s="5">
+        <v>403</v>
+      </c>
+      <c r="I13" s="5">
+        <v>232.66</v>
+      </c>
+      <c r="J13" s="5">
+        <v>273.51</v>
+      </c>
+      <c r="K13" s="5">
+        <v>356.95</v>
+      </c>
+      <c r="L13" s="5">
+        <v>269.45999999999998</v>
+      </c>
+      <c r="M13" s="5">
+        <v>257.39</v>
+      </c>
+      <c r="N13" s="5">
+        <v>152.94999999999999</v>
+      </c>
+      <c r="O13" s="5">
+        <v>470.97</v>
+      </c>
+      <c r="P13" s="5">
+        <v>445.87</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>136.09</v>
+      </c>
+      <c r="R13" s="5">
+        <v>254.6</v>
+      </c>
+      <c r="S13" s="5">
+        <v>180.27</v>
+      </c>
+      <c r="T13" s="5">
+        <v>623.4</v>
+      </c>
+      <c r="U13" s="5">
+        <v>178.3</v>
+      </c>
+      <c r="V13" s="3">
+        <v>257.51</v>
+      </c>
+      <c r="W13" s="2">
+        <v>317.36</v>
+      </c>
+      <c r="X13" s="5">
+        <v>258.06</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>141.72999999999999</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>377.59000000000003</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>491.48</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>65.959999999999994</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>89.85</v>
+      </c>
+    </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
-        <v>20</v>
+      <c r="A14" s="55" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="3">
-        <v>220</v>
+        <v>532</v>
       </c>
       <c r="C14" s="3">
-        <v>332.36</v>
+        <v>620</v>
       </c>
       <c r="D14" s="3">
-        <v>506</v>
+        <v>650</v>
       </c>
       <c r="E14" s="5">
-        <v>155.96</v>
+        <v>425</v>
       </c>
       <c r="F14" s="5">
-        <v>243.56</v>
+        <v>600</v>
       </c>
       <c r="G14" s="5">
-        <v>188.87</v>
+        <v>200</v>
       </c>
       <c r="H14" s="5">
-        <v>403</v>
+        <v>319.7</v>
       </c>
       <c r="I14" s="5">
-        <v>232.66</v>
+        <v>370</v>
       </c>
       <c r="J14" s="5">
-        <v>273.51</v>
+        <v>300</v>
       </c>
       <c r="K14" s="5">
-        <v>356.95</v>
+        <v>740</v>
       </c>
       <c r="L14" s="5">
-        <v>269.45999999999998</v>
+        <v>300</v>
       </c>
       <c r="M14" s="5">
-        <v>257.39</v>
+        <v>250</v>
       </c>
       <c r="N14" s="5">
-        <v>152.94999999999999</v>
-      </c>
-      <c r="O14" s="5">
-        <v>470.97</v>
+        <v>400</v>
+      </c>
+      <c r="O14" s="3">
+        <v>300</v>
       </c>
       <c r="P14" s="5">
-        <v>445.87</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="5">
-        <v>136.09</v>
+        <v>200</v>
       </c>
       <c r="R14" s="5">
-        <v>254.6</v>
+        <v>250</v>
       </c>
       <c r="S14" s="5">
-        <v>180.27</v>
+        <v>300</v>
       </c>
       <c r="T14" s="5">
-        <v>623.4</v>
+        <v>300</v>
       </c>
       <c r="U14" s="5">
-        <v>178.3</v>
+        <v>350</v>
       </c>
       <c r="V14" s="3">
-        <v>257.51</v>
-      </c>
-      <c r="W14" s="2">
-        <v>317.36</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="W14" s="2"/>
       <c r="X14" s="5">
-        <v>258.06</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>141.72999999999999</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2">
-        <v>377.59000000000003</v>
+        <v>102.4</v>
       </c>
       <c r="AA14" s="2">
-        <v>491.48</v>
+        <v>250</v>
       </c>
       <c r="AB14" s="2">
-        <v>65.959999999999994</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>89.85</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>21</v>
+      <c r="A15" s="55" t="s">
+        <v>22</v>
       </c>
       <c r="B15" s="3">
-        <v>532</v>
+        <v>6.42</v>
       </c>
       <c r="C15" s="3">
-        <v>620</v>
+        <v>97.14</v>
       </c>
       <c r="D15" s="3">
-        <v>650</v>
+        <v>84.96</v>
       </c>
       <c r="E15" s="5">
-        <v>425</v>
+        <v>26.01</v>
       </c>
       <c r="F15" s="5">
-        <v>600</v>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="G15" s="5">
-        <v>200</v>
+        <v>85.01</v>
       </c>
       <c r="H15" s="5">
-        <v>319.7</v>
+        <v>134.13</v>
       </c>
       <c r="I15" s="5">
-        <v>370</v>
+        <v>47.52</v>
       </c>
       <c r="J15" s="5">
-        <v>300</v>
+        <v>235.57</v>
       </c>
       <c r="K15" s="5">
-        <v>740</v>
+        <v>233.54</v>
       </c>
       <c r="L15" s="5">
-        <v>300</v>
+        <v>31.67</v>
       </c>
       <c r="M15" s="5">
-        <v>250</v>
-      </c>
-      <c r="N15" s="5">
-        <v>400</v>
-      </c>
+        <v>103.39</v>
+      </c>
+      <c r="N15" s="3"/>
       <c r="O15" s="3">
-        <v>300</v>
+        <v>32.18</v>
       </c>
       <c r="P15" s="5">
-        <v>340</v>
+        <v>19.45</v>
       </c>
       <c r="Q15" s="5">
-        <v>200</v>
+        <v>1.31</v>
       </c>
       <c r="R15" s="5">
-        <v>250</v>
+        <v>224.73</v>
       </c>
       <c r="S15" s="5">
-        <v>300</v>
+        <v>97.91</v>
       </c>
       <c r="T15" s="5">
-        <v>300</v>
+        <v>344.97</v>
       </c>
       <c r="U15" s="5">
-        <v>350</v>
-      </c>
-      <c r="V15" s="3">
-        <v>138</v>
-      </c>
-      <c r="W15" s="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="V15" s="5">
+        <v>18.11</v>
+      </c>
+      <c r="W15" s="2">
+        <v>96.53</v>
+      </c>
       <c r="X15" s="5">
-        <v>60</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>34.619999999999997</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>19.22</v>
+      </c>
       <c r="Z15" s="2">
-        <v>102.4</v>
+        <v>63.1</v>
       </c>
       <c r="AA15" s="2">
-        <v>250</v>
+        <v>23.09</v>
       </c>
       <c r="AB15" s="2">
-        <v>520</v>
-      </c>
-      <c r="AC15" s="2"/>
+        <v>9.23</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>126.24</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3">
-        <v>6.42</v>
-      </c>
-      <c r="C16" s="3">
-        <v>97.14</v>
-      </c>
-      <c r="D16" s="3">
-        <v>84.96</v>
-      </c>
-      <c r="E16" s="5">
-        <v>26.01</v>
-      </c>
-      <c r="F16" s="5">
-        <v>2.7000000000000003E-2</v>
-      </c>
-      <c r="G16" s="5">
-        <v>85.01</v>
-      </c>
-      <c r="H16" s="5">
-        <v>134.13</v>
-      </c>
-      <c r="I16" s="5">
-        <v>47.52</v>
-      </c>
-      <c r="J16" s="5">
-        <v>235.57</v>
-      </c>
-      <c r="K16" s="5">
-        <v>233.54</v>
-      </c>
-      <c r="L16" s="5">
-        <v>31.67</v>
-      </c>
-      <c r="M16" s="5">
-        <v>103.39</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3">
-        <v>32.18</v>
-      </c>
-      <c r="P16" s="5">
-        <v>19.45</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>1.31</v>
-      </c>
-      <c r="R16" s="5">
-        <v>224.73</v>
-      </c>
-      <c r="S16" s="5">
-        <v>97.91</v>
-      </c>
-      <c r="T16" s="5">
-        <v>344.97</v>
-      </c>
-      <c r="U16" s="5">
-        <v>5.8</v>
-      </c>
-      <c r="V16" s="5">
-        <v>18.11</v>
-      </c>
-      <c r="W16" s="2">
-        <v>96.53</v>
-      </c>
-      <c r="X16" s="5">
-        <v>34.619999999999997</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>19.22</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>63.1</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>23.09</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>9.23</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>126.24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
-        <v>34.979999999999997</v>
-      </c>
-      <c r="E17" s="5">
-        <v>10.41</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5">
-        <v>53.7</v>
-      </c>
-      <c r="I17" s="5">
-        <v>19.010000000000002</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5">
-        <v>93.42</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5">
-        <v>7.24</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="5">
-        <v>13.86</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>7.69</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>25.23</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>39.31</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>3.69</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>50.5</v>
-      </c>
-      <c r="AD17" s="53"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="str">
-        <f>A17</f>
-        <v>Regulatory Adjustment</v>
-      </c>
-      <c r="B18" s="27">
+      <c r="A16" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="25">
         <v>0</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C16" s="25">
         <v>0</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D16" s="25">
         <v>-34.979999999999997</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E16" s="25">
         <v>-10.41</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F16" s="25">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G16" s="25">
         <v>0</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H16" s="25">
         <v>-53.7</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I16" s="25">
         <v>-19.010000000000002</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J16" s="25">
         <v>0</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K16" s="25">
         <v>-93.42</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L16" s="25">
         <v>0</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M16" s="25">
         <v>0</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N16" s="25">
         <v>0</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O16" s="25">
         <v>0</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P16" s="25">
         <v>0</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q16" s="25">
         <v>0</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R16" s="25">
         <v>0</v>
       </c>
-      <c r="S18" s="27">
+      <c r="S16" s="25">
         <v>0</v>
       </c>
-      <c r="T18" s="27">
+      <c r="T16" s="25">
         <v>0</v>
       </c>
-      <c r="U18" s="27">
+      <c r="U16" s="25">
         <v>0</v>
       </c>
-      <c r="V18" s="27">
+      <c r="V16" s="25">
         <v>-7.24</v>
       </c>
-      <c r="W18" s="27">
+      <c r="W16" s="25">
         <v>0</v>
       </c>
-      <c r="X18" s="27">
+      <c r="X16" s="25">
         <v>-13.86</v>
       </c>
-      <c r="Y18" s="27">
+      <c r="Y16" s="25">
         <v>-7.69</v>
       </c>
-      <c r="Z18" s="27">
+      <c r="Z16" s="25">
         <v>-25.23</v>
       </c>
-      <c r="AA18" s="27">
+      <c r="AA16" s="25">
         <v>-39.31</v>
       </c>
-      <c r="AB18" s="27">
+      <c r="AB16" s="25">
         <v>-3.69</v>
       </c>
-      <c r="AC18" s="27">
+      <c r="AC16" s="25">
         <v>-50.5</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+    <row r="17" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B17" s="17">
         <v>758.42</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C17" s="17">
         <v>1049.5</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D17" s="17">
         <v>1205.98</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E17" s="17">
         <v>596.56000000000006</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F17" s="17">
         <v>843.57600000000002</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G17" s="17">
         <v>473.88</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H17" s="17">
         <v>803.13</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I17" s="17">
         <v>631.16999999999996</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J17" s="17">
         <v>809.07999999999993</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K17" s="17">
         <v>1237.07</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L17" s="17">
         <v>601.13</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M17" s="17">
         <v>610.78</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N17" s="17">
         <v>552.95000000000005</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O17" s="17">
         <v>803.15</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P17" s="17">
         <v>805.32</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q17" s="17">
         <v>337.40000000000003</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R17" s="17">
         <v>729.33</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S17" s="17">
         <v>578.17999999999995</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T17" s="17">
         <v>1268.3699999999999</v>
       </c>
-      <c r="U19" s="17">
+      <c r="U17" s="17">
         <v>534.09999999999991</v>
       </c>
-      <c r="V19" s="17">
+      <c r="V17" s="17">
         <v>406.38</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W17" s="17">
         <v>413.89</v>
       </c>
-      <c r="X19" s="17">
+      <c r="X17" s="17">
         <v>338.82</v>
       </c>
-      <c r="Y19" s="17">
+      <c r="Y17" s="17">
         <v>153.26</v>
       </c>
-      <c r="Z19" s="17">
+      <c r="Z17" s="17">
         <v>517.86</v>
       </c>
-      <c r="AA19" s="17">
+      <c r="AA17" s="17">
         <v>725.26</v>
       </c>
-      <c r="AB19" s="17">
+      <c r="AB17" s="17">
         <v>591.5</v>
       </c>
-      <c r="AC19" s="17">
+      <c r="AC17" s="17">
         <v>165.58999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+    <row r="18" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
         <v>24</v>
       </c>
+      <c r="B18" s="20">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="C18" s="20">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="D18" s="20">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="E18" s="21">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="G18" s="21">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="H18" s="21">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="I18" s="21">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J18" s="21">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="K18" s="21">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="L18" s="20">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="M18" s="20">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="N18" s="20">
+        <v>1.23E-2</v>
+      </c>
+      <c r="O18" s="20">
+        <v>1.67E-2</v>
+      </c>
+      <c r="P18" s="21">
+        <v>5.0499999999999996E-2</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="R18" s="21">
+        <v>4.2199999999999994E-2</v>
+      </c>
+      <c r="S18" s="21">
+        <v>2.9900000000000003E-2</v>
+      </c>
+      <c r="T18" s="21">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="U18" s="21">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="V18" s="20">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="W18" s="22">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="X18" s="22">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="Y18" s="22">
+        <v>1.04E-2</v>
+      </c>
+      <c r="Z18" s="22">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="AA18" s="22">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="AB18" s="23">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="AC18" s="22">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="35">
+        <v>2001.6906047999996</v>
+      </c>
+      <c r="C19" s="35">
+        <v>3359.51</v>
+      </c>
+      <c r="D19" s="35">
+        <v>3186.5799999999995</v>
+      </c>
+      <c r="E19" s="35">
+        <v>1497.5</v>
+      </c>
+      <c r="F19" s="35">
+        <v>1877.1559999999999</v>
+      </c>
+      <c r="G19" s="35">
+        <v>1609.79</v>
+      </c>
+      <c r="H19" s="35">
+        <v>2459.0699999999997</v>
+      </c>
+      <c r="I19" s="35">
+        <v>2064.9299999999998</v>
+      </c>
+      <c r="J19" s="35">
+        <v>2487.5699999999997</v>
+      </c>
+      <c r="K19" s="35">
+        <v>3404.63</v>
+      </c>
+      <c r="L19" s="35">
+        <v>1919.5099999999998</v>
+      </c>
+      <c r="M19" s="35">
+        <v>3057.83</v>
+      </c>
+      <c r="N19" s="35">
+        <v>1838.6100000000001</v>
+      </c>
+      <c r="O19" s="35">
+        <v>2236.16</v>
+      </c>
+      <c r="P19" s="35">
+        <v>2160.7599999999998</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>1592.19</v>
+      </c>
+      <c r="R19" s="35">
+        <v>2355.17</v>
+      </c>
+      <c r="S19" s="35">
+        <v>2441.46</v>
+      </c>
+      <c r="T19" s="35">
+        <v>5063.9009999999998</v>
+      </c>
+      <c r="U19" s="35">
+        <v>1794.1799999999998</v>
+      </c>
+      <c r="V19" s="35">
+        <v>1457.4099999999999</v>
+      </c>
+      <c r="W19" s="35">
+        <v>2634.0699999999997</v>
+      </c>
+      <c r="X19" s="35">
+        <v>2401.1999999999998</v>
+      </c>
+      <c r="Y19" s="35">
+        <v>1764.64</v>
+      </c>
+      <c r="Z19" s="35">
+        <v>3733.02</v>
+      </c>
+      <c r="AA19" s="35">
+        <v>3081.42</v>
+      </c>
+      <c r="AB19" s="35">
+        <v>1560.43</v>
+      </c>
+      <c r="AC19" s="35">
+        <v>1253.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>91</v>
+      </c>
       <c r="B20" s="20">
-        <v>5.1700000000000003E-2</v>
+        <v>0.1389</v>
       </c>
       <c r="C20" s="20">
-        <v>3.5700000000000003E-2</v>
+        <v>0.1139</v>
       </c>
       <c r="D20" s="20">
-        <v>4.2099999999999999E-2</v>
+        <v>0.111</v>
       </c>
       <c r="E20" s="21">
-        <v>3.8800000000000001E-2</v>
+        <v>0.1129</v>
       </c>
       <c r="F20" s="21">
-        <v>6.2300000000000001E-2</v>
+        <v>0.1462</v>
       </c>
       <c r="G20" s="21">
-        <v>3.0200000000000001E-2</v>
+        <v>0.1082</v>
       </c>
       <c r="H20" s="21">
-        <v>4.0300000000000002E-2</v>
+        <v>0.1242</v>
       </c>
       <c r="I20" s="21">
-        <v>3.9E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="J20" s="21">
-        <v>4.2500000000000003E-2</v>
+        <v>0.13569999999999999</v>
       </c>
       <c r="K20" s="21">
-        <v>4.4200000000000003E-2</v>
+        <v>0.1215</v>
       </c>
       <c r="L20" s="20">
-        <v>3.6200000000000003E-2</v>
+        <v>0.11550000000000001</v>
       </c>
       <c r="M20" s="20">
-        <v>2.2700000000000001E-2</v>
+        <v>0.1183</v>
       </c>
       <c r="N20" s="20">
-        <v>1.23E-2</v>
+        <v>0.1154</v>
       </c>
       <c r="O20" s="20">
-        <v>1.67E-2</v>
+        <v>0.10829999999999999</v>
       </c>
       <c r="P20" s="21">
-        <v>5.0499999999999996E-2</v>
+        <v>0.13669999999999999</v>
       </c>
       <c r="Q20" s="21">
-        <v>2.7799999999999998E-2</v>
+        <v>0.11539999999999999</v>
       </c>
       <c r="R20" s="21">
-        <v>4.2199999999999994E-2</v>
+        <v>0.14960000000000001</v>
       </c>
       <c r="S20" s="21">
-        <v>2.9900000000000003E-2</v>
+        <v>0.14910000000000001</v>
       </c>
       <c r="T20" s="21">
-        <v>2.0799999999999999E-2</v>
+        <v>0.1084</v>
       </c>
       <c r="U20" s="21">
-        <v>3.5299999999999998E-2</v>
+        <v>0.1125</v>
       </c>
       <c r="V20" s="20">
-        <v>2.9899999999999999E-2</v>
+        <v>0.10730000000000001</v>
       </c>
       <c r="W20" s="22">
-        <v>1.8599999999999998E-2</v>
+        <v>0.11219999999999999</v>
       </c>
       <c r="X20" s="22">
-        <v>1.8599999999999998E-2</v>
+        <v>0.1222</v>
       </c>
       <c r="Y20" s="22">
-        <v>1.04E-2</v>
+        <v>0.1197</v>
       </c>
       <c r="Z20" s="22">
-        <v>1.8200000000000001E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="AA20" s="22">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="AB20" s="23">
-        <v>4.7300000000000002E-2</v>
+        <v>0.123</v>
+      </c>
+      <c r="AB20" s="22">
+        <v>0.12479999999999999</v>
       </c>
       <c r="AC20" s="22">
-        <v>1.7899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+        <v>0.13569999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="33">
+        <v>13211.08</v>
+      </c>
+      <c r="C21" s="33">
+        <v>22433.78</v>
+      </c>
+      <c r="D21" s="33">
+        <v>22654.65</v>
+      </c>
+      <c r="E21" s="34">
+        <v>11083.45</v>
+      </c>
+      <c r="F21" s="34">
+        <v>14443.84</v>
+      </c>
+      <c r="G21" s="34">
+        <v>11709.96</v>
+      </c>
+      <c r="H21" s="34">
+        <v>16653.990000000002</v>
+      </c>
+      <c r="I21" s="34">
+        <v>16564.78</v>
+      </c>
+      <c r="J21" s="34">
+        <v>17604.62</v>
+      </c>
+      <c r="K21" s="34">
+        <v>19186.560000000001</v>
+      </c>
+      <c r="L21" s="34">
+        <v>17377.61</v>
+      </c>
+      <c r="M21" s="34">
+        <v>22339.69</v>
+      </c>
+      <c r="N21" s="34">
+        <v>12609.68</v>
+      </c>
+      <c r="O21" s="34">
+        <v>15411.62</v>
+      </c>
+      <c r="P21" s="34">
+        <v>13483.34</v>
+      </c>
+      <c r="Q21" s="34">
+        <v>10503.91</v>
+      </c>
+      <c r="R21" s="34">
+        <v>15637.13</v>
+      </c>
+      <c r="S21" s="34">
+        <v>19651.939999999999</v>
+      </c>
+      <c r="T21" s="34">
+        <v>61141.89</v>
+      </c>
+      <c r="U21" s="34">
+        <v>14125.88</v>
+      </c>
+      <c r="V21" s="34">
+        <v>24170.17</v>
+      </c>
+      <c r="W21" s="33">
+        <v>20301.12</v>
+      </c>
+      <c r="X21" s="33">
+        <v>17584.14</v>
+      </c>
+      <c r="Y21" s="33">
+        <v>12907.01</v>
+      </c>
+      <c r="Z21" s="33">
+        <v>21391.53</v>
+      </c>
+      <c r="AA21" s="33">
+        <v>17248.990000000002</v>
+      </c>
+      <c r="AB21" s="33">
+        <v>11372.38</v>
+      </c>
+      <c r="AC21" s="33">
+        <v>8331.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="33">
+        <v>15321.89</v>
+      </c>
+      <c r="C22" s="33">
+        <v>25695.73</v>
+      </c>
+      <c r="D22" s="33">
+        <v>24539.439999999999</v>
+      </c>
+      <c r="E22" s="34">
+        <v>13159.36</v>
+      </c>
+      <c r="F22" s="34">
+        <v>17273.84</v>
+      </c>
+      <c r="G22" s="34">
+        <v>14155.1</v>
+      </c>
+      <c r="H22" s="34">
+        <v>19157.3</v>
+      </c>
+      <c r="I22" s="34">
+        <v>20718.53</v>
+      </c>
+      <c r="J22" s="34">
+        <v>17441.75</v>
+      </c>
+      <c r="K22" s="34">
+        <v>22997.34</v>
+      </c>
+      <c r="L22" s="34">
+        <v>19029.330000000002</v>
+      </c>
+      <c r="M22" s="34">
+        <v>24822.36</v>
+      </c>
+      <c r="N22" s="34">
+        <v>12403.38</v>
+      </c>
+      <c r="O22" s="34">
+        <v>15578.36</v>
+      </c>
+      <c r="P22" s="34">
+        <v>15675.69</v>
+      </c>
+      <c r="Q22" s="34">
+        <v>12255.38</v>
+      </c>
+      <c r="R22" s="34">
+        <v>14020.51</v>
+      </c>
+      <c r="S22" s="34">
+        <v>19970.39</v>
+      </c>
+      <c r="T22" s="34">
+        <v>68104.45</v>
+      </c>
+      <c r="U22" s="34">
+        <v>16013.26</v>
+      </c>
+      <c r="V22" s="34">
+        <v>27141</v>
+      </c>
+      <c r="W22" s="33">
+        <v>24727.85</v>
+      </c>
+      <c r="X22" s="33">
+        <v>18147.88</v>
+      </c>
+      <c r="Y22" s="33">
+        <v>13270.36</v>
+      </c>
+      <c r="Z22" s="33">
+        <v>24071.99</v>
+      </c>
+      <c r="AA22" s="33">
+        <v>19783.53</v>
+      </c>
+      <c r="AB22" s="33">
+        <v>13144.25</v>
+      </c>
+      <c r="AC22" s="33">
+        <v>13473.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.84224840721737226</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.82726084591419335</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0.79949999999999999</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1.0093000000000001</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0.83430000000000004</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1.0165999999999999</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0.98930000000000007</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="R23" s="13">
+        <v>1.1153</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0.88209999999999988</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0.89054087911278135</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0.82098201016263039</v>
+      </c>
+      <c r="X23" s="6">
+        <v>0.96893631652843193</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>0.97261943157533026</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>0.8886481757428446</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>0.87188636203953507</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>0.86519809041976525</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>0.61834082591311879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="37">
-        <v>2001.6906047999996</v>
-      </c>
-      <c r="C21" s="37">
-        <v>3359.51</v>
-      </c>
-      <c r="D21" s="37">
-        <v>3186.5799999999995</v>
-      </c>
-      <c r="E21" s="37">
-        <v>1497.5</v>
-      </c>
-      <c r="F21" s="37">
-        <v>1877.1559999999999</v>
-      </c>
-      <c r="G21" s="37">
-        <v>1609.79</v>
-      </c>
-      <c r="H21" s="37">
-        <v>2459.0699999999997</v>
-      </c>
-      <c r="I21" s="37">
-        <v>2064.9299999999998</v>
-      </c>
-      <c r="J21" s="37">
-        <v>2487.5699999999997</v>
-      </c>
-      <c r="K21" s="37">
-        <v>3404.63</v>
-      </c>
-      <c r="L21" s="37">
-        <v>1919.5099999999998</v>
-      </c>
-      <c r="M21" s="37">
-        <v>3057.83</v>
-      </c>
-      <c r="N21" s="37">
-        <v>1838.6100000000001</v>
-      </c>
-      <c r="O21" s="37">
-        <v>2236.16</v>
-      </c>
-      <c r="P21" s="37">
-        <v>2160.7599999999998</v>
-      </c>
-      <c r="Q21" s="37">
-        <v>1592.19</v>
-      </c>
-      <c r="R21" s="37">
-        <v>2355.17</v>
-      </c>
-      <c r="S21" s="37">
-        <v>2441.46</v>
-      </c>
-      <c r="T21" s="37">
-        <v>5063.9009999999998</v>
-      </c>
-      <c r="U21" s="37">
-        <v>1794.1799999999998</v>
-      </c>
-      <c r="V21" s="37">
-        <v>1457.4099999999999</v>
-      </c>
-      <c r="W21" s="37">
-        <v>2634.0699999999997</v>
-      </c>
-      <c r="X21" s="37">
-        <v>2401.1999999999998</v>
-      </c>
-      <c r="Y21" s="37">
-        <v>1764.64</v>
-      </c>
-      <c r="Z21" s="37">
-        <v>3733.02</v>
-      </c>
-      <c r="AA21" s="37">
-        <v>3081.42</v>
-      </c>
-      <c r="AB21" s="37">
-        <v>1560.43</v>
-      </c>
-      <c r="AC21" s="37">
-        <v>1253.95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="20">
-        <v>0.1389</v>
-      </c>
-      <c r="C22" s="20">
-        <v>0.1139</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0.111</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0.1129</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0.1462</v>
-      </c>
-      <c r="G22" s="21">
-        <v>0.1082</v>
-      </c>
-      <c r="H22" s="21">
-        <v>0.1242</v>
-      </c>
-      <c r="I22" s="21">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="J22" s="21">
-        <v>0.13569999999999999</v>
-      </c>
-      <c r="K22" s="21">
-        <v>0.1215</v>
-      </c>
-      <c r="L22" s="20">
-        <v>0.11550000000000001</v>
-      </c>
-      <c r="M22" s="20">
-        <v>0.1183</v>
-      </c>
-      <c r="N22" s="20">
-        <v>0.1154</v>
-      </c>
-      <c r="O22" s="20">
-        <v>0.10829999999999999</v>
-      </c>
-      <c r="P22" s="21">
-        <v>0.13669999999999999</v>
-      </c>
-      <c r="Q22" s="21">
-        <v>0.11539999999999999</v>
-      </c>
-      <c r="R22" s="21">
-        <v>0.14960000000000001</v>
-      </c>
-      <c r="S22" s="21">
-        <v>0.14910000000000001</v>
-      </c>
-      <c r="T22" s="21">
-        <v>0.1084</v>
-      </c>
-      <c r="U22" s="21">
-        <v>0.1125</v>
-      </c>
-      <c r="V22" s="20">
-        <v>0.10730000000000001</v>
-      </c>
-      <c r="W22" s="22">
-        <v>0.11219999999999999</v>
-      </c>
-      <c r="X22" s="22">
-        <v>0.1222</v>
-      </c>
-      <c r="Y22" s="22">
-        <v>0.1197</v>
-      </c>
-      <c r="Z22" s="22">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="AA22" s="22">
-        <v>0.123</v>
-      </c>
-      <c r="AB22" s="22">
-        <v>0.12479999999999999</v>
-      </c>
-      <c r="AC22" s="22">
-        <v>0.13569999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="C23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="D23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="E23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="F23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="G23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="H23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="I23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="J23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="K23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="L23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="M23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="N23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="O23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="P23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="Q23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="R23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="S23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="T23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="U23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="V23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="W23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="X23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="Y23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="Z23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="AA23" s="25">
-        <v>0.1125</v>
-      </c>
-      <c r="AB23" s="26">
-        <v>0.1125</v>
-      </c>
-      <c r="AC23" s="52">
-        <v>0.1125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="35">
-        <v>13211.08</v>
-      </c>
-      <c r="C24" s="35">
-        <v>22433.78</v>
-      </c>
-      <c r="D24" s="35">
-        <v>22654.65</v>
-      </c>
-      <c r="E24" s="36">
-        <v>11083.45</v>
-      </c>
-      <c r="F24" s="36">
-        <v>14443.84</v>
-      </c>
-      <c r="G24" s="36">
-        <v>11709.96</v>
-      </c>
-      <c r="H24" s="36">
-        <v>16653.990000000002</v>
-      </c>
-      <c r="I24" s="36">
-        <v>16564.78</v>
-      </c>
-      <c r="J24" s="36">
-        <v>17604.62</v>
-      </c>
-      <c r="K24" s="36">
-        <v>19186.560000000001</v>
-      </c>
-      <c r="L24" s="36">
-        <v>17377.61</v>
-      </c>
-      <c r="M24" s="36">
-        <v>22339.69</v>
-      </c>
-      <c r="N24" s="36">
-        <v>12609.68</v>
-      </c>
-      <c r="O24" s="36">
-        <v>15411.62</v>
-      </c>
-      <c r="P24" s="36">
-        <v>13483.34</v>
-      </c>
-      <c r="Q24" s="36">
-        <v>10503.91</v>
-      </c>
-      <c r="R24" s="36">
-        <v>15637.13</v>
-      </c>
-      <c r="S24" s="36">
-        <v>19651.939999999999</v>
-      </c>
-      <c r="T24" s="36">
-        <v>61141.89</v>
-      </c>
-      <c r="U24" s="36">
-        <v>14125.88</v>
-      </c>
-      <c r="V24" s="36">
-        <v>24170.17</v>
-      </c>
-      <c r="W24" s="35">
-        <v>20301.12</v>
-      </c>
-      <c r="X24" s="35">
-        <v>17584.14</v>
-      </c>
-      <c r="Y24" s="35">
-        <v>12907.01</v>
-      </c>
-      <c r="Z24" s="35">
-        <v>21391.53</v>
-      </c>
-      <c r="AA24" s="35">
-        <v>17248.990000000002</v>
-      </c>
-      <c r="AB24" s="35">
-        <v>11372.38</v>
-      </c>
-      <c r="AC24" s="35">
-        <v>8331.11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="35">
-        <v>15321.89</v>
-      </c>
-      <c r="C25" s="35">
-        <v>25695.73</v>
-      </c>
-      <c r="D25" s="35">
-        <v>24539.439999999999</v>
-      </c>
-      <c r="E25" s="36">
-        <v>13159.36</v>
-      </c>
-      <c r="F25" s="36">
-        <v>17273.84</v>
-      </c>
-      <c r="G25" s="36">
-        <v>14155.1</v>
-      </c>
-      <c r="H25" s="36">
-        <v>19157.3</v>
-      </c>
-      <c r="I25" s="36">
-        <v>20718.53</v>
-      </c>
-      <c r="J25" s="36">
-        <v>17441.75</v>
-      </c>
-      <c r="K25" s="36">
-        <v>22997.34</v>
-      </c>
-      <c r="L25" s="36">
-        <v>19029.330000000002</v>
-      </c>
-      <c r="M25" s="36">
-        <v>24822.36</v>
-      </c>
-      <c r="N25" s="36">
-        <v>12403.38</v>
-      </c>
-      <c r="O25" s="36">
-        <v>15578.36</v>
-      </c>
-      <c r="P25" s="36">
-        <v>15675.69</v>
-      </c>
-      <c r="Q25" s="36">
-        <v>12255.38</v>
-      </c>
-      <c r="R25" s="36">
-        <v>14020.51</v>
-      </c>
-      <c r="S25" s="36">
-        <v>19970.39</v>
-      </c>
-      <c r="T25" s="36">
-        <v>68104.45</v>
-      </c>
-      <c r="U25" s="36">
-        <v>16013.26</v>
-      </c>
-      <c r="V25" s="36">
-        <v>27141</v>
-      </c>
-      <c r="W25" s="35">
-        <v>24727.85</v>
-      </c>
-      <c r="X25" s="35">
-        <v>18147.88</v>
-      </c>
-      <c r="Y25" s="35">
-        <v>13270.36</v>
-      </c>
-      <c r="Z25" s="35">
-        <v>24071.99</v>
-      </c>
-      <c r="AA25" s="35">
-        <v>19783.53</v>
-      </c>
-      <c r="AB25" s="35">
-        <v>13144.25</v>
-      </c>
-      <c r="AC25" s="35">
-        <v>13473.33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0.86219999999999997</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.87309999999999999</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.92320000000000002</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0.84224840721737226</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0.83620000000000005</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0.82726084591419335</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0.79949999999999999</v>
-      </c>
-      <c r="J26" s="13">
-        <v>1.0093000000000001</v>
-      </c>
-      <c r="K26" s="13">
-        <v>0.83430000000000004</v>
-      </c>
-      <c r="L26" s="13">
-        <v>0.91310000000000002</v>
-      </c>
-      <c r="M26" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="N26" s="6">
-        <v>1.0165999999999999</v>
-      </c>
-      <c r="O26" s="13">
-        <v>0.98930000000000007</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0.86009999999999998</v>
-      </c>
-      <c r="Q26" s="13">
-        <v>0.85709999999999997</v>
-      </c>
-      <c r="R26" s="13">
-        <v>1.1153</v>
-      </c>
-      <c r="S26" s="13">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="T26" s="13">
-        <v>0.89780000000000004</v>
-      </c>
-      <c r="U26" s="13">
-        <v>0.88209999999999988</v>
-      </c>
-      <c r="V26" s="6">
-        <v>0.89054087911278135</v>
-      </c>
-      <c r="W26" s="6">
-        <v>0.82098201016263039</v>
-      </c>
-      <c r="X26" s="6">
-        <v>0.96893631652843193</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>0.97261943157533026</v>
-      </c>
-      <c r="Z26" s="6">
-        <v>0.8886481757428446</v>
-      </c>
-      <c r="AA26" s="6">
-        <v>0.87188636203953507</v>
-      </c>
-      <c r="AB26" s="6">
-        <v>0.86519809041976525</v>
-      </c>
-      <c r="AC26" s="6">
-        <v>0.61834082591311879</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="B24" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="O24" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="W24" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="X24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="B25" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="E25" s="10">
         <v>0.15</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0.24</v>
-      </c>
-      <c r="K27" s="9">
+      <c r="F25" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="V25" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="X25" s="9">
         <v>0.2</v>
       </c>
-      <c r="L27" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O27" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P27" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="R27" s="9">
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="9">
         <v>0.2</v>
       </c>
-      <c r="S27" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="T27" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="U27" s="2"/>
-      <c r="V27" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="W27" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="X27" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="Y27" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="AB27" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="AC27" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="P28" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="R28" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="V28" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="W28" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="X28" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="9">
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="9">
         <v>0.02</v>
       </c>
-      <c r="AC28" s="2"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="AC25" s="2"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B26" s="33">
         <v>18812.224230200001</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C26" s="33">
         <v>32944.370000000003</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D26" s="33">
         <v>31716.880000000001</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E26" s="33">
         <v>16448.04</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F26" s="33">
         <v>21155</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G26" s="33">
         <v>16919.5</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H26" s="33">
         <v>25486.61</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I26" s="33">
         <v>27684.43</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J26" s="33">
         <v>25940.23</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K26" s="33">
         <v>29179.8</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L26" s="33">
         <v>22781.53</v>
       </c>
-      <c r="M29" s="35">
+      <c r="M26" s="33">
         <v>29113.19</v>
       </c>
-      <c r="N29" s="35">
+      <c r="N26" s="33">
         <v>17095.3</v>
       </c>
-      <c r="O29" s="35">
+      <c r="O26" s="33">
         <v>20503.54</v>
       </c>
-      <c r="P29" s="35">
+      <c r="P26" s="33">
         <v>20327.689999999999</v>
       </c>
-      <c r="Q29" s="35">
+      <c r="Q26" s="33">
         <v>15165.39</v>
       </c>
-      <c r="R29" s="35">
+      <c r="R26" s="33">
         <v>21237.72</v>
       </c>
-      <c r="S29" s="35">
+      <c r="S26" s="33">
         <v>27290</v>
       </c>
-      <c r="T29" s="35">
+      <c r="T26" s="33">
         <v>79792.66</v>
       </c>
-      <c r="U29" s="35">
+      <c r="U26" s="33">
         <v>20025.11</v>
       </c>
-      <c r="V29" s="35">
+      <c r="V26" s="33">
         <v>30562.06</v>
       </c>
-      <c r="W29" s="35">
+      <c r="W26" s="33">
         <v>32036.19</v>
       </c>
-      <c r="X29" s="35">
+      <c r="X26" s="33">
         <v>26832.400000000001</v>
       </c>
-      <c r="Y29" s="35">
+      <c r="Y26" s="33">
         <v>17406.400000000001</v>
       </c>
-      <c r="Z29" s="35">
+      <c r="Z26" s="33">
         <v>30655.48</v>
       </c>
-      <c r="AA29" s="35">
+      <c r="AA26" s="33">
         <v>25755.34</v>
       </c>
-      <c r="AB29" s="35">
+      <c r="AB26" s="33">
         <v>16826.14</v>
       </c>
-      <c r="AC29" s="35">
+      <c r="AC26" s="33">
         <v>16232.21</v>
       </c>
     </row>
@@ -3597,12 +3375,12 @@
       <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="11" t="s">
         <v>1</v>
       </c>
@@ -3677,90 +3455,90 @@
       </c>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="64">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="60">
         <v>2016</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60">
         <v>2015</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="30"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="28"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="30"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="28"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>94</v>
       </c>
       <c r="E6">
@@ -3771,14 +3549,14 @@
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <f>42739092226/10000000</f>
         <v>4273.9092226000002</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="31">
         <f>34969765767/10000000</f>
         <v>3496.9765766999999</v>
       </c>
@@ -3787,13 +3565,13 @@
       <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="31">
         <f>8767854108/10000000</f>
         <v>876.78541080000002</v>
       </c>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>97</v>
       </c>
       <c r="F9">
@@ -3804,7 +3582,7 @@
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>98</v>
       </c>
       <c r="F10">
@@ -3815,7 +3593,7 @@
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>99</v>
       </c>
       <c r="F11">
@@ -3829,7 +3607,7 @@
       <c r="B12" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="31">
         <f>22140630345/10000000</f>
         <v>2214.0630345</v>
       </c>
@@ -3860,28 +3638,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="34">
+      <c r="C1" s="32">
         <v>2016</v>
       </c>
-      <c r="D1" s="34">
+      <c r="D1" s="32">
         <v>2015</v>
       </c>
-      <c r="E1" s="34">
+      <c r="E1" s="32">
         <v>2014</v>
       </c>
-      <c r="F1" s="34">
+      <c r="F1" s="32">
         <v>2013</v>
       </c>
-      <c r="I1" s="34">
+      <c r="I1" s="32">
         <v>2016</v>
       </c>
-      <c r="J1" s="34">
+      <c r="J1" s="32">
         <v>2015</v>
       </c>
-      <c r="K1" s="34">
+      <c r="K1" s="32">
         <v>2014</v>
       </c>
-      <c r="L1" s="34">
+      <c r="L1" s="32">
         <v>2013</v>
       </c>
     </row>
@@ -3897,31 +3675,31 @@
       <c r="B3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="33">
         <v>20301.12</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="33">
         <v>17312.54</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="33">
         <v>14997.45</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="33">
         <v>13694.05</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="34">
         <v>17248.96</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="45">
         <v>14518.12</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="34">
         <v>14736.7</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="34">
         <v>15358.9</v>
       </c>
     </row>
@@ -3929,25 +3707,25 @@
       <c r="B4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="33">
         <v>55.13</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="33">
         <v>93.53</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="33">
         <v>98.83</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="33">
         <v>56.87</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="34">
         <v>54</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="45">
         <v>42</v>
       </c>
       <c r="K4" s="2">
@@ -3961,25 +3739,25 @@
       <c r="B5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>630.59</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="33">
         <v>254.36</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <v>337.68</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="33">
         <v>414.93</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="34">
         <v>1308.83</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="45">
         <v>1074.95</v>
       </c>
       <c r="K5" s="2">
@@ -3993,31 +3771,31 @@
       <c r="B6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>24727.85</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="33">
         <v>22480.86</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>19309.02</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>17787.82</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="34">
         <v>19783.53</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="45">
         <v>19481.45</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="34">
         <v>20483.8</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="34">
         <v>20190.7</v>
       </c>
     </row>
@@ -4039,31 +3817,31 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="34">
         <v>880.74</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>880.37</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>880.74</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>880.74</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="39">
         <v>1029.3499999999999</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="45">
         <v>1029.3499999999999</v>
       </c>
       <c r="K9" s="5">
         <v>1029.3499999999999</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="34">
         <v>1029.3499999999999</v>
       </c>
     </row>
@@ -4071,25 +3849,25 @@
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="34">
         <v>930.03</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="33">
         <v>930.03</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="33">
         <v>840.02</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>717.15</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="39">
         <v>920.4</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="45">
         <v>873.5</v>
       </c>
       <c r="K10" s="2">
@@ -4103,17 +3881,17 @@
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="H11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="34">
         <v>2.8</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="45">
         <v>2.8</v>
       </c>
       <c r="K11" s="2">
@@ -4127,15 +3905,15 @@
       <c r="B12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="H12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
     </row>
@@ -4143,17 +3921,17 @@
       <c r="B13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="H13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="40">
         <v>224.12</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="40">
         <v>224.12</v>
       </c>
       <c r="K13" s="2">
@@ -4167,15 +3945,15 @@
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="H14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
@@ -4183,25 +3961,25 @@
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="34">
         <v>338.36</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>304.49</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="33">
         <v>187.78</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="33">
         <v>80.569999999999993</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="39">
         <v>196.11</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="40">
         <v>185.47</v>
       </c>
       <c r="K15" s="4">
@@ -4215,17 +3993,17 @@
       <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="H16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="41">
         <v>0</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="40">
         <v>0</v>
       </c>
       <c r="K16" s="2"/>
@@ -4235,17 +4013,17 @@
       <c r="B17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
       <c r="H17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="40">
         <v>16.62</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="40">
         <v>15.35</v>
       </c>
       <c r="K17" s="2"/>
@@ -4255,30 +4033,30 @@
       <c r="B18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="25">
         <f>-C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <f>-D17</f>
         <v>0</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <f>-E17</f>
         <v>0</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="25">
         <f>-F17</f>
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="42">
         <f>-I17</f>
         <v>-16.62</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="42">
         <f>-J17</f>
         <v>-15.35</v>
       </c>
@@ -4289,34 +4067,34 @@
       <c r="B19" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="35">
         <f>SUM(C9:C16)-C17</f>
         <v>2149.13</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="35">
         <f>SUM(D9:D16)-D17</f>
         <v>2114.8900000000003</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="35">
         <f>SUM(E9:E16)-E17</f>
         <v>1908.54</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="35">
         <f>SUM(F9:F16)-F17</f>
         <v>1678.4599999999998</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="43">
         <f>SUM(I9:I16)-I17</f>
         <v>2356.1600000000003</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="43">
         <f>SUM(J9:J16)-J17</f>
         <v>2299.89</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="43">
         <f>SUM(K9:K16)-K17</f>
         <v>2261.13</v>
       </c>
@@ -4344,13 +4122,13 @@
       <c r="H20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="44">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="44">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="44">
         <v>0.1045</v>
       </c>
       <c r="L20" s="22">
@@ -4358,7 +4136,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J21" s="42"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
@@ -4373,11 +4151,11 @@
       <c r="H22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="40">
         <f>336+138.56+16.92</f>
         <v>491.48</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="40">
         <v>251.67</v>
       </c>
       <c r="K22" s="2"/>
@@ -4394,13 +4172,13 @@
       <c r="H23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="40">
         <v>250</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="40">
         <v>300</v>
       </c>
-      <c r="K23" s="35"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -4414,17 +4192,17 @@
       <c r="H24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="40">
         <f>23.09+75.18</f>
         <v>98.27000000000001</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="40">
         <f>23.09+75.18</f>
         <v>98.27000000000001</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="2"/>
-      <c r="N24" s="50"/>
+      <c r="N24" s="48"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -4437,10 +4215,10 @@
       <c r="H25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="40">
         <v>39.31</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="40">
         <v>19.649999999999999</v>
       </c>
       <c r="K25" s="2"/>
@@ -4451,19 +4229,19 @@
         <f>B25</f>
         <v>Regulatory Adjustment</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="25">
         <f>-C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="25">
         <f>-D25</f>
         <v>0</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="25">
         <f>-E25</f>
         <v>0</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="25">
         <f>-F25</f>
         <v>0</v>
       </c>
@@ -4471,11 +4249,11 @@
         <f>H25</f>
         <v>Regulatory Adjustment</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="42">
         <f>-I25</f>
         <v>-39.31</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="42">
         <f>-J25</f>
         <v>-19.649999999999999</v>
       </c>
@@ -4501,11 +4279,11 @@
       <c r="H27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="43">
         <f>SUM(I22:I24)-I25</f>
         <v>800.44</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="43">
         <f>SUM(J22:J24)-J25</f>
         <v>630.29</v>
       </c>
@@ -4515,7 +4293,7 @@
       <c r="L27" s="2">
         <v>510.43</v>
       </c>
-      <c r="N27" s="50"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
@@ -4540,10 +4318,10 @@
       <c r="H28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="44">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J28" s="46">
         <f>J29-J20</f>
         <v>2.7300000000000019E-2</v>
       </c>
@@ -4573,10 +4351,10 @@
       <c r="H29" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="44">
         <v>0.123</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="44">
         <v>0.12690000000000001</v>
       </c>
       <c r="K29" s="22">
@@ -4622,16 +4400,16 @@
       <c r="B32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="33">
         <v>23722.99</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="33">
         <v>21022.51</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="33">
         <v>19963.669999999998</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="33">
         <v>17969.2</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -4642,31 +4420,31 @@
       <c r="B33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="33">
         <v>32036.19</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="33">
         <v>28546.23</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="33">
         <v>24838.65</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="33">
         <v>22853.38</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="34">
         <v>25659.9</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="34">
         <v>25216.1</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="34">
         <v>25491.200000000001</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="34">
         <v>24386.9</v>
       </c>
     </row>
@@ -4674,31 +4452,31 @@
       <c r="B34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="33">
         <v>378.84</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="33">
         <v>391.78</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="33">
         <v>221.45</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="33">
         <v>373.6</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="34">
         <v>661.05</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="34">
         <v>654.13</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="34">
         <v>664.87</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="34">
         <v>645.67999999999995</v>
       </c>
     </row>
@@ -4706,31 +4484,31 @@
       <c r="B35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="33">
         <v>7300.85</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="33">
         <v>5450.22</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="33">
         <v>4753.84</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="33">
         <v>4573.83</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="34">
         <v>13855.84</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="34">
         <v>11568.72</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="34">
         <v>11811.18</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="34">
         <v>11641.49</v>
       </c>
     </row>
@@ -4761,36 +4539,36 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="34">
         <v>19438.599999999999</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="33">
         <v>22851.95</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="36">
+      <c r="K38" s="34">
         <v>18580.3</v>
       </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="37" t="s">
         <v>94</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="37" t="s">
         <v>94</v>
       </c>
       <c r="I39" s="2"/>
@@ -4799,14 +4577,14 @@
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="37" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="37" t="s">
         <v>95</v>
       </c>
       <c r="I40" s="2"/>
@@ -4818,7 +4596,7 @@
       <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="34">
         <v>2103.96</v>
       </c>
       <c r="D41" s="2"/>
@@ -4837,14 +4615,14 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="37" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="37" t="s">
         <v>97</v>
       </c>
       <c r="I42" s="2">
@@ -4856,14 +4634,14 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="37" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="37" t="s">
         <v>98</v>
       </c>
       <c r="I43" s="2">
@@ -4875,14 +4653,14 @@
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="37" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="37" t="s">
         <v>99</v>
       </c>
       <c r="I44" s="2">
@@ -4906,7 +4684,7 @@
       <c r="H45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="33">
         <v>2427.5300000000002</v>
       </c>
       <c r="J45" s="2"/>
@@ -4916,28 +4694,28 @@
       <c r="L45" s="2"/>
     </row>
     <row r="47" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="34">
+      <c r="C47" s="32">
         <v>2016</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="32">
         <v>2015</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="32">
         <v>2014</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="32">
         <v>2013</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="32">
         <v>2016</v>
       </c>
-      <c r="J47" s="34">
+      <c r="J47" s="32">
         <v>2015</v>
       </c>
-      <c r="K47" s="34">
+      <c r="K47" s="32">
         <v>2014</v>
       </c>
-      <c r="L47" s="34">
+      <c r="L47" s="32">
         <v>2013</v>
       </c>
     </row>
@@ -4953,31 +4731,31 @@
       <c r="B49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="33">
         <v>15411.62</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="33">
         <v>12662.4</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="33">
         <v>11724.11</v>
       </c>
-      <c r="F49" s="35">
+      <c r="F49" s="33">
         <v>9758.24</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I49" s="35">
+      <c r="I49" s="33">
         <v>12907.01</v>
       </c>
-      <c r="J49" s="35">
+      <c r="J49" s="33">
         <v>10797.15</v>
       </c>
-      <c r="K49" s="35">
+      <c r="K49" s="33">
         <v>9376.65</v>
       </c>
-      <c r="L49" s="35">
+      <c r="L49" s="33">
         <v>9079.0400000000009</v>
       </c>
     </row>
@@ -4985,51 +4763,51 @@
       <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="33">
         <v>0</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="33">
         <v>80</v>
       </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
       <c r="H50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="33">
         <v>880.4</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="33">
         <v>55.28</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="33">
         <v>369.24</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="33">
         <v>137.88</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I51" s="35">
+      <c r="I51" s="33">
         <v>672.64</v>
       </c>
-      <c r="J51" s="35">
+      <c r="J51" s="33">
         <v>556.58000000000004</v>
       </c>
-      <c r="K51" s="35">
+      <c r="K51" s="33">
         <v>502.55</v>
       </c>
-      <c r="L51" s="35">
+      <c r="L51" s="33">
         <v>276.35000000000002</v>
       </c>
     </row>
@@ -5037,31 +4815,31 @@
       <c r="B52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="33">
         <v>15578.36</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="33">
         <v>14770.87</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="33">
         <v>13500.01</v>
       </c>
-      <c r="F52" s="35">
+      <c r="F52" s="33">
         <v>12091.25</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I52" s="35">
+      <c r="I52" s="33">
         <v>13270.36</v>
       </c>
-      <c r="J52" s="35">
+      <c r="J52" s="33">
         <v>11248.63</v>
       </c>
-      <c r="K52" s="35">
+      <c r="K52" s="33">
         <v>10545.82</v>
       </c>
-      <c r="L52" s="35">
+      <c r="L52" s="33">
         <v>9798.69</v>
       </c>
     </row>
@@ -5080,13 +4858,13 @@
       <c r="C55" s="5">
         <v>739.16</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="33">
         <v>739.16</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="33">
         <v>739.16</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F55" s="33">
         <v>659.96</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -5098,10 +4876,10 @@
       <c r="J55" s="5">
         <v>883.22</v>
       </c>
-      <c r="K55" s="35">
+      <c r="K55" s="33">
         <v>802.92</v>
       </c>
-      <c r="L55" s="35">
+      <c r="L55" s="33">
         <v>764.69</v>
       </c>
     </row>
@@ -5112,13 +4890,13 @@
       <c r="C56" s="5">
         <v>544.92999999999995</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="33">
         <v>475.18</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E56" s="33">
         <v>422.31</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="33">
         <v>376.54</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -5127,13 +4905,13 @@
       <c r="I56" s="5">
         <v>592.75</v>
       </c>
-      <c r="J56" s="35">
+      <c r="J56" s="33">
         <v>522.41</v>
       </c>
-      <c r="K56" s="35">
+      <c r="K56" s="33">
         <v>478.35</v>
       </c>
-      <c r="L56" s="35">
+      <c r="L56" s="33">
         <v>428.35</v>
       </c>
     </row>
@@ -5142,9 +4920,9 @@
         <v>27</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
       <c r="H57" s="2" t="s">
         <v>27</v>
       </c>
@@ -5154,10 +4932,10 @@
       <c r="J57" s="3">
         <v>1.02</v>
       </c>
-      <c r="K57" s="35">
+      <c r="K57" s="33">
         <v>1.02</v>
       </c>
-      <c r="L57" s="35">
+      <c r="L57" s="33">
         <v>1.02</v>
       </c>
     </row>
@@ -5166,32 +4944,32 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
       <c r="H58" s="2" t="s">
         <v>84</v>
       </c>
       <c r="I58" s="3"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
       <c r="H59" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I59" s="3"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
@@ -5200,22 +4978,22 @@
       <c r="C60" s="2">
         <v>4.57</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="33">
         <v>4.57</v>
       </c>
-      <c r="E60" s="35">
+      <c r="E60" s="33">
         <v>4.57</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="33">
         <v>4.57</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
@@ -5224,13 +5002,13 @@
       <c r="C61" s="5">
         <v>153.87</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="33">
         <v>89.25</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E61" s="33">
         <v>76.739999999999995</v>
       </c>
-      <c r="F61" s="35">
+      <c r="F61" s="33">
         <v>135.69</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -5239,13 +5017,13 @@
       <c r="I61" s="5">
         <v>144.63999999999999</v>
       </c>
-      <c r="J61" s="35">
+      <c r="J61" s="33">
         <v>119.49</v>
       </c>
-      <c r="K61" s="35">
+      <c r="K61" s="33">
         <v>104.67</v>
       </c>
-      <c r="L61" s="35">
+      <c r="L61" s="33">
         <v>88.22</v>
       </c>
     </row>
@@ -5254,9 +5032,9 @@
         <v>80</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
       <c r="H62" s="2" t="s">
         <v>80</v>
       </c>
@@ -5264,12 +5042,12 @@
         <f>205/10000000</f>
         <v>2.05E-5</v>
       </c>
-      <c r="J62" s="35">
+      <c r="J62" s="33">
         <f>205/10000000</f>
         <v>2.05E-5</v>
       </c>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
@@ -5278,44 +5056,44 @@
       <c r="C63" s="5">
         <v>9.52</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="33">
         <v>17.3</v>
       </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
       <c r="H63" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I63" s="5">
         <v>7.35</v>
       </c>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C64" s="25">
         <f>-C63</f>
         <v>-9.52</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="25">
         <f>-D63</f>
         <v>-17.3</v>
       </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
       <c r="H64" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I64" s="27">
+      <c r="I64" s="25">
         <v>-7.35</v>
       </c>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
@@ -5508,28 +5286,28 @@
         <f>B71</f>
         <v>Regulatory Adjustment</v>
       </c>
-      <c r="C72" s="27">
+      <c r="C72" s="25">
         <f>-C71</f>
         <v>-21.82</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="25">
         <f>-D71</f>
         <v>-10.91</v>
       </c>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
       <c r="H72" s="2" t="str">
         <f>H71</f>
         <v>Regulatory Adjustment</v>
       </c>
-      <c r="I72" s="27">
+      <c r="I72" s="25">
         <v>-7.69</v>
       </c>
-      <c r="J72" s="27">
+      <c r="J72" s="25">
         <v>-3.84</v>
       </c>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
@@ -5663,10 +5441,10 @@
       <c r="B78" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="35">
+      <c r="C78" s="33">
         <v>17170.419999999998</v>
       </c>
-      <c r="D78" s="35">
+      <c r="D78" s="33">
         <v>15143.87</v>
       </c>
       <c r="E78" s="2">
@@ -5678,10 +5456,10 @@
       <c r="H78" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I78" s="35">
+      <c r="I78" s="33">
         <v>15034.39</v>
       </c>
-      <c r="J78" s="35">
+      <c r="J78" s="33">
         <v>12513.52</v>
       </c>
       <c r="K78" s="2">
@@ -5696,31 +5474,31 @@
       <c r="B79" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="35">
+      <c r="C79" s="33">
         <v>20503.54</v>
       </c>
-      <c r="D79" s="35">
+      <c r="D79" s="33">
         <v>18378.12</v>
       </c>
-      <c r="E79" s="35">
+      <c r="E79" s="33">
         <v>16910.07</v>
       </c>
-      <c r="F79" s="35">
+      <c r="F79" s="33">
         <v>14510.24</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I79" s="35">
+      <c r="I79" s="33">
         <v>17406.400000000001</v>
       </c>
-      <c r="J79" s="35">
+      <c r="J79" s="33">
         <v>14761.08</v>
       </c>
-      <c r="K79" s="40">
+      <c r="K79" s="38">
         <v>13599.66</v>
       </c>
-      <c r="L79" s="35">
+      <c r="L79" s="33">
         <v>12462.62</v>
       </c>
     </row>
@@ -5728,31 +5506,31 @@
       <c r="B80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="33">
         <v>319.91000000000003</v>
       </c>
-      <c r="D80" s="35">
+      <c r="D80" s="33">
         <v>334.82</v>
       </c>
-      <c r="E80" s="35">
+      <c r="E80" s="33">
         <v>322.94</v>
       </c>
-      <c r="F80" s="35">
+      <c r="F80" s="33">
         <v>313.79000000000002</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I80" s="35">
+      <c r="I80" s="33">
         <v>251.42</v>
       </c>
-      <c r="J80" s="35">
+      <c r="J80" s="33">
         <v>264.2</v>
       </c>
-      <c r="K80" s="35">
+      <c r="K80" s="33">
         <v>259.17</v>
       </c>
-      <c r="L80" s="35">
+      <c r="L80" s="33">
         <v>175.91</v>
       </c>
     </row>
@@ -5760,31 +5538,31 @@
       <c r="B81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="35">
+      <c r="C81" s="33">
         <v>8169.78</v>
       </c>
-      <c r="D81" s="35">
+      <c r="D81" s="33">
         <v>6403.67</v>
       </c>
-      <c r="E81" s="35">
+      <c r="E81" s="33">
         <v>6079.86</v>
       </c>
-      <c r="F81" s="35">
+      <c r="F81" s="33">
         <v>5175.3599999999997</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I81" s="35">
+      <c r="I81" s="33">
         <v>4134.03</v>
       </c>
-      <c r="J81" s="35">
+      <c r="J81" s="33">
         <v>3425.29</v>
       </c>
-      <c r="K81" s="35">
+      <c r="K81" s="33">
         <v>3309.81</v>
       </c>
-      <c r="L81" s="35">
+      <c r="L81" s="33">
         <v>2623.58</v>
       </c>
     </row>
@@ -5821,23 +5599,23 @@
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="36">
+      <c r="C84" s="34">
         <v>1524.29</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="H84" s="38" t="s">
+      <c r="H84" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="I84" s="35">
+      <c r="I84" s="33">
         <f>I85+I86</f>
         <v>13418.89</v>
       </c>
-      <c r="J84" s="35">
+      <c r="J84" s="33">
         <f>J85+J86</f>
         <v>11072.13</v>
       </c>
@@ -5849,17 +5627,17 @@
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="37" t="s">
         <v>94</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="H85" s="39" t="s">
+      <c r="H85" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="I85" s="36">
+      <c r="I85" s="34">
         <v>11309.5</v>
       </c>
       <c r="J85" s="2">
@@ -5869,20 +5647,20 @@
       <c r="L85" s="2"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="37" t="s">
         <v>95</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="H86" s="39" t="s">
+      <c r="H86" s="37" t="s">
         <v>95</v>
       </c>
       <c r="I86" s="2">
         <v>2109.39</v>
       </c>
-      <c r="J86" s="35">
+      <c r="J86" s="33">
         <v>1829.73</v>
       </c>
       <c r="K86" s="2"/>
@@ -5892,7 +5670,7 @@
       <c r="B87" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="36">
+      <c r="C87" s="34">
         <v>61.78</v>
       </c>
       <c r="D87" s="2"/>
@@ -5901,7 +5679,7 @@
       <c r="H87" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I87" s="36">
+      <c r="I87" s="34">
         <v>303.31</v>
       </c>
       <c r="J87" s="2">
@@ -5910,20 +5688,20 @@
       <c r="K87" s="2">
         <v>525.80999999999995</v>
       </c>
-      <c r="L87" s="35">
+      <c r="L87" s="33">
         <v>285.2</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="37" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="39" t="s">
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="37" t="s">
         <v>97</v>
       </c>
       <c r="I88" s="2">
@@ -5936,14 +5714,14 @@
       <c r="L88" s="2"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="37" t="s">
         <v>98</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="H89" s="39" t="s">
+      <c r="H89" s="37" t="s">
         <v>98</v>
       </c>
       <c r="I89" s="2">
@@ -5956,14 +5734,14 @@
       <c r="L89" s="2"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="39" t="s">
+      <c r="B90" s="37" t="s">
         <v>99</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="H90" s="39" t="s">
+      <c r="H90" s="37" t="s">
         <v>99</v>
       </c>
       <c r="I90" s="2">
@@ -6002,16 +5780,16 @@
       </c>
     </row>
     <row r="93" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="34">
+      <c r="C93" s="32">
         <v>2016</v>
       </c>
-      <c r="D93" s="34">
+      <c r="D93" s="32">
         <v>2015</v>
       </c>
-      <c r="E93" s="34">
+      <c r="E93" s="32">
         <v>2014</v>
       </c>
-      <c r="F93" s="34">
+      <c r="F93" s="32">
         <v>2013</v>
       </c>
     </row>
@@ -6024,37 +5802,37 @@
       <c r="B95" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
@@ -6071,8 +5849,8 @@
       <c r="D101" s="5">
         <v>875.8</v>
       </c>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
@@ -6081,11 +5859,11 @@
       <c r="C102" s="5">
         <v>609.16999999999996</v>
       </c>
-      <c r="D102" s="35">
+      <c r="D102" s="33">
         <v>500.28</v>
       </c>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
@@ -6097,17 +5875,17 @@
       <c r="D103" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C104" s="3"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
@@ -6116,11 +5894,11 @@
       <c r="C105" s="3">
         <v>66.09</v>
       </c>
-      <c r="D105" s="35">
+      <c r="D105" s="33">
         <v>66.09</v>
       </c>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
@@ -6129,9 +5907,9 @@
       <c r="C106" s="2">
         <v>17.690000000000001</v>
       </c>
-      <c r="D106" s="35"/>
-      <c r="E106" s="35"/>
-      <c r="F106" s="35"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
@@ -6140,11 +5918,11 @@
       <c r="C107" s="5">
         <v>297.26</v>
       </c>
-      <c r="D107" s="35">
+      <c r="D107" s="33">
         <v>215.97</v>
       </c>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
@@ -6153,29 +5931,29 @@
       <c r="C108" s="5">
         <v>0.01</v>
       </c>
-      <c r="D108" s="35">
+      <c r="D108" s="33">
         <v>0.25</v>
       </c>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C109" s="5"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="11" t="s">
@@ -6239,10 +6017,10 @@
         <f>B117</f>
         <v>Regulatory Adjustment</v>
       </c>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="11" t="s">
@@ -6284,10 +6062,10 @@
       <c r="B124" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C124" s="35">
+      <c r="C124" s="33">
         <v>18398.759999999998</v>
       </c>
-      <c r="D124" s="35">
+      <c r="D124" s="33">
         <v>16058.15</v>
       </c>
       <c r="E124" s="2"/>
@@ -6297,28 +6075,28 @@
       <c r="B125" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="40"/>
-      <c r="F125" s="35"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="33"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="11" t="s">
@@ -6330,39 +6108,39 @@
       <c r="F129" s="11"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="38" t="s">
+      <c r="B130" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C130" s="35">
+      <c r="C130" s="33">
         <v>15162.39</v>
       </c>
-      <c r="D130" s="35">
+      <c r="D130" s="33">
         <v>13115.3</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C131" s="36">
+      <c r="C131" s="34">
         <v>13033.76</v>
       </c>
-      <c r="D131" s="35">
+      <c r="D131" s="33">
         <v>11574.7</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C132" s="35">
+      <c r="C132" s="33">
         <v>2128.63</v>
       </c>
-      <c r="D132" s="35">
+      <c r="D132" s="33">
         <v>1540.6</v>
       </c>
       <c r="E132" s="2"/>
@@ -6372,17 +6150,17 @@
       <c r="B133" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C133" s="36">
+      <c r="C133" s="34">
         <v>1283.3399999999999</v>
       </c>
-      <c r="D133" s="35">
+      <c r="D133" s="33">
         <v>1300.1400000000001</v>
       </c>
       <c r="E133" s="2"/>
-      <c r="F133" s="35"/>
+      <c r="F133" s="33"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="39" t="s">
+      <c r="B134" s="37" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="2"/>
@@ -6391,7 +6169,7 @@
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="39" t="s">
+      <c r="B135" s="37" t="s">
         <v>98</v>
       </c>
       <c r="C135" s="2"/>
@@ -6400,7 +6178,7 @@
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="39" t="s">
+      <c r="B136" s="37" t="s">
         <v>99</v>
       </c>
       <c r="C136" s="2"/>
@@ -6412,10 +6190,10 @@
       <c r="B137" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C137" s="35">
+      <c r="C137" s="33">
         <v>1953.03</v>
       </c>
-      <c r="D137" s="35">
+      <c r="D137" s="33">
         <v>1642.71</v>
       </c>
       <c r="E137" s="2"/>

--- a/bank.xlsx
+++ b/bank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GoogleDrive\python\Bank_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E8202-A936-41D8-8202-39F729F966C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A70B4C-EB37-4649-9B97-5F1011F62B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="125">
   <si>
     <t>UCB</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>Regulatory Adjustment (Tier-2)</t>
+  </si>
+  <si>
+    <t>OBL</t>
   </si>
 </sst>
 </file>
@@ -955,10 +958,10 @@
   </sheetPr>
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +998,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="C1" s="50" t="s">
         <v>0</v>
